--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB0CD33-2F85-FB4A-A23A-FA7339CE8687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375FD5B7-93AC-4F43-9229-E34806F105D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="87">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Jansie</t>
-  </si>
-  <si>
-    <t>Bernice Savings</t>
   </si>
   <si>
     <t>Bernice Transactional</t>
@@ -299,6 +296,15 @@
   <si>
     <t>Comic Con</t>
   </si>
+  <si>
+    <t>Bulk Meat</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Bernice Personal Savings</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,6 +437,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -604,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -629,7 +642,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -662,11 +674,1071 @@
     <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="222">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1296,30 +2368,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1344,30 +2392,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1392,30 +2416,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1440,30 +2440,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1488,30 +2464,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1536,30 +2488,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1584,30 +2512,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1632,30 +2536,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1680,30 +2560,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1728,30 +2584,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1776,30 +2608,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1824,30 +2632,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1872,30 +2656,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1920,30 +2680,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -1968,30 +2704,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2016,30 +2728,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2064,30 +2752,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2112,30 +2776,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2160,30 +2800,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2208,30 +2824,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2256,30 +2848,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2304,30 +2872,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2352,30 +2896,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2400,30 +2920,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2630,258 +3126,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -5456,30 +5712,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5504,30 +5736,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5552,30 +5760,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5600,30 +5784,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5648,30 +5808,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5696,30 +5832,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5744,30 +5856,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5792,30 +5880,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5830,30 +5894,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -5862,30 +5902,6 @@
         <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -5974,33 +5990,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J29" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
-  <autoFilter ref="A1:J28" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J30" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+  <autoFilter ref="A1:J29" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214">
+    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="212">
+    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="210">
+    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="209" totalsRowDxfId="208">
+    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="207" totalsRowDxfId="206">
+    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="37">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="205" totalsRowDxfId="204">
+    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="203" totalsRowDxfId="202">
+    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="201" totalsRowDxfId="200">
+    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6009,162 +6025,162 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:J10" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:J10" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A1:J10" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="196"/>
-    <tableColumn id="7" xr3:uid="{224B2C86-CE9C-9740-8863-A79E9BA6474C}" name="2024-05-01" dataDxfId="195"/>
-    <tableColumn id="8" xr3:uid="{86C20A53-81CA-5C44-94E5-DFEF4FEBDB46}" name="2024-06-01" dataDxfId="194"/>
-    <tableColumn id="9" xr3:uid="{7A5EB71F-2A37-D94A-A511-CB581024F945}" name="2024-07-01" dataDxfId="193"/>
-    <tableColumn id="10" xr3:uid="{4323FC88-E3C5-C942-A248-8725F58D05F1}" name="2024-08-01" dataDxfId="192"/>
-    <tableColumn id="11" xr3:uid="{A67EE3D4-5BA4-CB4C-A243-EC07A75B9A2A}" name="2024-09-01" dataDxfId="191"/>
-    <tableColumn id="12" xr3:uid="{D8311E55-3FCF-5646-9D4B-8E41AACE8122}" name="2024-10-01" dataDxfId="190"/>
-    <tableColumn id="13" xr3:uid="{1068DD40-0163-AB4F-BD01-F087C1DA52FC}" name="2024-11-01" dataDxfId="189"/>
-    <tableColumn id="14" xr3:uid="{1979ACD9-F9BF-B64F-8FAE-C5E1FD6DB39A}" name="2024-12-01" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="207"/>
+    <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{224B2C86-CE9C-9740-8863-A79E9BA6474C}" name="2024-05-01" dataDxfId="205"/>
+    <tableColumn id="8" xr3:uid="{86C20A53-81CA-5C44-94E5-DFEF4FEBDB46}" name="2024-06-01" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{7A5EB71F-2A37-D94A-A511-CB581024F945}" name="2024-07-01" dataDxfId="203"/>
+    <tableColumn id="10" xr3:uid="{4323FC88-E3C5-C942-A248-8725F58D05F1}" name="2024-08-01" dataDxfId="202"/>
+    <tableColumn id="11" xr3:uid="{A67EE3D4-5BA4-CB4C-A243-EC07A75B9A2A}" name="2024-09-01" dataDxfId="201"/>
+    <tableColumn id="12" xr3:uid="{D8311E55-3FCF-5646-9D4B-8E41AACE8122}" name="2024-10-01" dataDxfId="200"/>
+    <tableColumn id="13" xr3:uid="{1068DD40-0163-AB4F-BD01-F087C1DA52FC}" name="2024-11-01" dataDxfId="199"/>
+    <tableColumn id="14" xr3:uid="{1979ACD9-F9BF-B64F-8FAE-C5E1FD6DB39A}" name="2024-12-01" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J5" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J5" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <autoFilter ref="A1:J5" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B7A1F2D-D042-6947-B65B-356D4D33EC84}" name="Movement" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{8D570864-DCAB-384F-9AAB-0B1B408BA72D}" name="Account Secondary" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{1C5600AD-E9D1-6040-A70C-7F4F4F75639C}" name="2024-05-01" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{A3364F3B-B8BC-434D-A8BB-FFC3B8C71293}" name="2024-06-01" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{1771F61E-E416-CE41-8394-E64B9057B10F}" name="2024-07-01" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{7188F6FE-F410-1741-B1DE-14957C8A5CB8}" name="2024-08-01" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{C2DE6C79-5960-3D4C-B26C-70E7E132D282}" name="2024-09-01" dataDxfId="179"/>
-    <tableColumn id="12" xr3:uid="{F4072681-3F04-0A46-9D9B-9A5803996783}" name="2024-10-01" dataDxfId="178"/>
-    <tableColumn id="13" xr3:uid="{AB81E1BD-B0CD-E84E-BC8A-D81316A44B08}" name="2024-11-01" dataDxfId="177"/>
-    <tableColumn id="14" xr3:uid="{7B9D14C4-BF9C-C74A-A14D-9A201AB2AF66}" name="2024-12-01" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{0B7A1F2D-D042-6947-B65B-356D4D33EC84}" name="Movement" dataDxfId="195"/>
+    <tableColumn id="6" xr3:uid="{8D570864-DCAB-384F-9AAB-0B1B408BA72D}" name="Account Secondary" dataDxfId="194"/>
+    <tableColumn id="7" xr3:uid="{1C5600AD-E9D1-6040-A70C-7F4F4F75639C}" name="2024-05-01" dataDxfId="193"/>
+    <tableColumn id="8" xr3:uid="{A3364F3B-B8BC-434D-A8BB-FFC3B8C71293}" name="2024-06-01" dataDxfId="192"/>
+    <tableColumn id="9" xr3:uid="{1771F61E-E416-CE41-8394-E64B9057B10F}" name="2024-07-01" dataDxfId="191"/>
+    <tableColumn id="10" xr3:uid="{7188F6FE-F410-1741-B1DE-14957C8A5CB8}" name="2024-08-01" dataDxfId="190"/>
+    <tableColumn id="11" xr3:uid="{C2DE6C79-5960-3D4C-B26C-70E7E132D282}" name="2024-09-01" dataDxfId="189"/>
+    <tableColumn id="12" xr3:uid="{F4072681-3F04-0A46-9D9B-9A5803996783}" name="2024-10-01" dataDxfId="188"/>
+    <tableColumn id="13" xr3:uid="{AB81E1BD-B0CD-E84E-BC8A-D81316A44B08}" name="2024-11-01" dataDxfId="187"/>
+    <tableColumn id="14" xr3:uid="{7B9D14C4-BF9C-C74A-A14D-9A201AB2AF66}" name="2024-12-01" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}" name="Table3254" displayName="Table3254" ref="A1:J4" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
-  <autoFilter ref="A1:J4" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}" name="Table3254" displayName="Table3254" ref="A1:J5" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
+  <autoFilter ref="A1:J5" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{D736239C-8F8A-0A41-855C-2D61D9FA6F03}" name="Movement" dataDxfId="173"/>
-    <tableColumn id="6" xr3:uid="{879B2830-2DB7-7C44-BEEF-A003D5F5C5EF}" name="Account Secondary" dataDxfId="172"/>
-    <tableColumn id="7" xr3:uid="{142EA412-8F0A-D645-9812-6B2B6729A8A4}" name="2024-05-01" dataDxfId="171"/>
-    <tableColumn id="8" xr3:uid="{DD117CB8-2856-0D48-9412-33F2845F937D}" name="2024-06-01" dataDxfId="170"/>
-    <tableColumn id="9" xr3:uid="{C9503397-2C2A-5B4B-84F6-7256EAD4FF82}" name="2024-07-01" dataDxfId="169"/>
-    <tableColumn id="10" xr3:uid="{528B3BEA-F5F6-CA4E-AA11-9CB0EBC907A1}" name="2024-08-01" dataDxfId="168"/>
-    <tableColumn id="11" xr3:uid="{248F2750-40B2-694E-B3E3-8C20B5CD9E09}" name="2024-09-01" dataDxfId="167"/>
-    <tableColumn id="12" xr3:uid="{FB23FE30-E2E2-BE49-A8AF-CCF74A9E5265}" name="2024-10-01" dataDxfId="166"/>
-    <tableColumn id="13" xr3:uid="{B7503BFF-CAE0-234C-B277-0A411884B34E}" name="2024-11-01" dataDxfId="165"/>
-    <tableColumn id="14" xr3:uid="{990DC215-1A0B-E34F-9CD0-E23EE6337BA8}" name="2024-12-01" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{D736239C-8F8A-0A41-855C-2D61D9FA6F03}" name="Movement" dataDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{879B2830-2DB7-7C44-BEEF-A003D5F5C5EF}" name="Account Secondary" dataDxfId="182"/>
+    <tableColumn id="7" xr3:uid="{142EA412-8F0A-D645-9812-6B2B6729A8A4}" name="2024-05-01" dataDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{DD117CB8-2856-0D48-9412-33F2845F937D}" name="2024-06-01" dataDxfId="180"/>
+    <tableColumn id="9" xr3:uid="{C9503397-2C2A-5B4B-84F6-7256EAD4FF82}" name="2024-07-01" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{528B3BEA-F5F6-CA4E-AA11-9CB0EBC907A1}" name="2024-08-01" dataDxfId="178"/>
+    <tableColumn id="11" xr3:uid="{248F2750-40B2-694E-B3E3-8C20B5CD9E09}" name="2024-09-01" dataDxfId="177"/>
+    <tableColumn id="12" xr3:uid="{FB23FE30-E2E2-BE49-A8AF-CCF74A9E5265}" name="2024-10-01" dataDxfId="176"/>
+    <tableColumn id="13" xr3:uid="{B7503BFF-CAE0-234C-B277-0A411884B34E}" name="2024-11-01" dataDxfId="175"/>
+    <tableColumn id="14" xr3:uid="{990DC215-1A0B-E34F-9CD0-E23EE6337BA8}" name="2024-12-01" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2E4C2A8A-A83E-704E-8265-40FE4C35254D}" name="Table3289" displayName="Table3289" ref="A1:AH4" totalsRowCount="1" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2E4C2A8A-A83E-704E-8265-40FE4C35254D}" name="Table3289" displayName="Table3289" ref="A1:AH4" totalsRowCount="1" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:AH3" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6173,105 +6189,105 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A1:AH7" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="100" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="31">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="30">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="29">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="28">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="27">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="26">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="25">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="24">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="23">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="22">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="21">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="20">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="19">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6280,7 +6296,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
   <autoFilter ref="A1:J4" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1CB6D3F1-51C1-684B-93B6-9FA82F9F067F}" name="Movement"/>
@@ -6299,33 +6315,33 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:J8" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-05-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-06-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-07-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-08-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-09-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-10-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-11-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-12-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6650,10 +6666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6667,903 +6683,931 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="24">
         <v>27000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>27000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="56">
         <v>21600</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>21600</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>21600</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>21600</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>21600</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>21600</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="A3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="24">
         <v>1325</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>1325</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
+        <v>1325</v>
+      </c>
+      <c r="F3" s="24">
         <v>1000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="G3" s="24">
         <v>1000</v>
       </c>
-      <c r="G3" s="25">
+      <c r="H3" s="24">
         <v>1000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="I3" s="24">
         <v>1000</v>
       </c>
-      <c r="I3" s="25">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25">
-        <v>200</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="A4" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="A5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="24">
         <v>7700</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>7700</v>
       </c>
-      <c r="E5" s="25">
-        <v>7500</v>
-      </c>
-      <c r="F5" s="25">
-        <v>7500</v>
-      </c>
-      <c r="G5" s="25">
-        <v>7500</v>
-      </c>
-      <c r="H5" s="25">
-        <v>7500</v>
-      </c>
-      <c r="I5" s="25">
-        <v>7500</v>
-      </c>
-      <c r="J5" s="25">
-        <v>7500</v>
+      <c r="E5" s="56">
+        <v>7000</v>
+      </c>
+      <c r="F5" s="24">
+        <v>7000</v>
+      </c>
+      <c r="G5" s="24">
+        <v>7000</v>
+      </c>
+      <c r="H5" s="24">
+        <v>7000</v>
+      </c>
+      <c r="I5" s="24">
+        <v>7000</v>
+      </c>
+      <c r="J5" s="24">
+        <v>7000</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>500</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>1500</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="57">
         <v>250</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>500</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>500</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>500</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="41">
         <v>500</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <v>500</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>8140</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>8140</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>8140</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>8140</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>8140</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>8140</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>8140</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>8140</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>3500</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>3578</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="57">
         <v>3578</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>3578</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>3578</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>3578</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>3578</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>3578</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>3100</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>1700</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="41">
         <v>1700</v>
       </c>
-      <c r="F9" s="42">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
-      <c r="G9" s="42">
+      <c r="H9" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="42">
+      <c r="I9" s="41">
         <v>0</v>
       </c>
-      <c r="I9" s="42">
+      <c r="J9" s="41">
         <v>0</v>
       </c>
-      <c r="J9" s="42">
+    </row>
+    <row r="10" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="D10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="E10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="F10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="G10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="H10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="I10" s="38">
+        <v>4530</v>
+      </c>
+      <c r="J10" s="38">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="41">
+        <v>110</v>
+      </c>
+      <c r="D11" s="41">
+        <v>170</v>
+      </c>
+      <c r="E11" s="41">
+        <v>170</v>
+      </c>
+      <c r="F11" s="41">
+        <v>170</v>
+      </c>
+      <c r="G11" s="41">
+        <v>170</v>
+      </c>
+      <c r="H11" s="41">
+        <v>170</v>
+      </c>
+      <c r="I11" s="41">
+        <v>170</v>
+      </c>
+      <c r="J11" s="41">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="38">
+        <v>117</v>
+      </c>
+      <c r="D12" s="38">
+        <v>117</v>
+      </c>
+      <c r="E12" s="38">
+        <v>117</v>
+      </c>
+      <c r="F12" s="38">
+        <v>117</v>
+      </c>
+      <c r="G12" s="38">
+        <v>117</v>
+      </c>
+      <c r="H12" s="38">
+        <v>117</v>
+      </c>
+      <c r="I12" s="38">
+        <v>117</v>
+      </c>
+      <c r="J12" s="38">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1050</v>
+      </c>
+      <c r="D13" s="41">
+        <v>988</v>
+      </c>
+      <c r="E13" s="57">
+        <v>988</v>
+      </c>
+      <c r="F13" s="41">
+        <v>988</v>
+      </c>
+      <c r="G13" s="41">
+        <v>988</v>
+      </c>
+      <c r="H13" s="41">
+        <v>988</v>
+      </c>
+      <c r="I13" s="41">
+        <v>988</v>
+      </c>
+      <c r="J13" s="41">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="38">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="38">
+        <v>560</v>
+      </c>
+      <c r="E14" s="38">
+        <v>560</v>
+      </c>
+      <c r="F14" s="38">
+        <v>560</v>
+      </c>
+      <c r="G14" s="38">
+        <v>560</v>
+      </c>
+      <c r="H14" s="38">
+        <v>560</v>
+      </c>
+      <c r="I14" s="38">
+        <v>560</v>
+      </c>
+      <c r="J14" s="38">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="41">
+        <v>440</v>
+      </c>
+      <c r="D15" s="41">
+        <v>440</v>
+      </c>
+      <c r="E15" s="41">
+        <v>440</v>
+      </c>
+      <c r="F15" s="41">
+        <v>440</v>
+      </c>
+      <c r="G15" s="41">
+        <v>440</v>
+      </c>
+      <c r="H15" s="41">
+        <v>440</v>
+      </c>
+      <c r="I15" s="41">
+        <v>440</v>
+      </c>
+      <c r="J15" s="41">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="41">
+        <v>600</v>
+      </c>
+      <c r="D16" s="41">
+        <v>600</v>
+      </c>
+      <c r="E16" s="41">
         <v>0</v>
       </c>
+      <c r="F16" s="41">
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <v>0</v>
+      </c>
+      <c r="J16" s="41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="D10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="E10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="F10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="G10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="H10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="I10" s="39">
-        <v>4530</v>
-      </c>
-      <c r="J10" s="39">
-        <v>4530</v>
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="58">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="H17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="38">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="38">
+        <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="42">
-        <v>110</v>
-      </c>
-      <c r="D11" s="42">
-        <v>170</v>
-      </c>
-      <c r="E11" s="42">
-        <v>170</v>
-      </c>
-      <c r="F11" s="42">
-        <v>170</v>
-      </c>
-      <c r="G11" s="42">
-        <v>170</v>
-      </c>
-      <c r="H11" s="42">
-        <v>170</v>
-      </c>
-      <c r="I11" s="42">
-        <v>170</v>
-      </c>
-      <c r="J11" s="42">
-        <v>170</v>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="41">
+        <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="39">
-        <v>117</v>
-      </c>
-      <c r="D12" s="39">
-        <v>117</v>
-      </c>
-      <c r="E12" s="39">
-        <v>117</v>
-      </c>
-      <c r="F12" s="39">
-        <v>117</v>
-      </c>
-      <c r="G12" s="39">
-        <v>117</v>
-      </c>
-      <c r="H12" s="39">
-        <v>117</v>
-      </c>
-      <c r="I12" s="39">
-        <v>117</v>
-      </c>
-      <c r="J12" s="39">
-        <v>117</v>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="58">
+        <v>250</v>
+      </c>
+      <c r="F19" s="38">
+        <v>500</v>
+      </c>
+      <c r="G19" s="38">
+        <v>900</v>
+      </c>
+      <c r="H19" s="38">
+        <v>500</v>
+      </c>
+      <c r="I19" s="38">
+        <v>500</v>
+      </c>
+      <c r="J19" s="38">
+        <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1050</v>
-      </c>
-      <c r="D13" s="42">
-        <v>988</v>
-      </c>
-      <c r="E13" s="42">
-        <v>988</v>
-      </c>
-      <c r="F13" s="42">
-        <v>988</v>
-      </c>
-      <c r="G13" s="42">
-        <v>988</v>
-      </c>
-      <c r="H13" s="42">
-        <v>988</v>
-      </c>
-      <c r="I13" s="42">
-        <v>988</v>
-      </c>
-      <c r="J13" s="42">
-        <v>988</v>
+    <row r="20" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="41">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="41">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="41">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="41">
+        <v>3450</v>
+      </c>
+      <c r="H20" s="41">
+        <v>3800</v>
+      </c>
+      <c r="I20" s="41">
+        <v>3800</v>
+      </c>
+      <c r="J20" s="41">
+        <v>3800</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="39">
-        <v>1200</v>
-      </c>
-      <c r="D14" s="39">
-        <v>560</v>
-      </c>
-      <c r="E14" s="39">
-        <v>560</v>
-      </c>
-      <c r="F14" s="39">
-        <v>560</v>
-      </c>
-      <c r="G14" s="39">
-        <v>560</v>
-      </c>
-      <c r="H14" s="39">
-        <v>560</v>
-      </c>
-      <c r="I14" s="39">
-        <v>560</v>
-      </c>
-      <c r="J14" s="39">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="42">
-        <v>440</v>
-      </c>
-      <c r="D15" s="42">
-        <v>440</v>
-      </c>
-      <c r="E15" s="42">
-        <v>440</v>
-      </c>
-      <c r="F15" s="42">
-        <v>440</v>
-      </c>
-      <c r="G15" s="42">
-        <v>440</v>
-      </c>
-      <c r="H15" s="42">
-        <v>440</v>
-      </c>
-      <c r="I15" s="42">
-        <v>440</v>
-      </c>
-      <c r="J15" s="42">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="42">
-        <v>600</v>
-      </c>
-      <c r="D16" s="42">
-        <v>600</v>
-      </c>
-      <c r="E16" s="42">
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="41">
         <v>0</v>
       </c>
-      <c r="F16" s="42">
+      <c r="D21" s="41">
         <v>0</v>
       </c>
-      <c r="G16" s="42">
+      <c r="E21" s="41">
         <v>0</v>
       </c>
-      <c r="H16" s="42">
+      <c r="F21" s="41">
         <v>0</v>
       </c>
-      <c r="I16" s="42">
+      <c r="G21" s="41">
         <v>0</v>
       </c>
-      <c r="J16" s="42">
+      <c r="H21" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="D17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="E17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="F17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="H17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="I17" s="39">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="39">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="42">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="39">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="39">
-        <v>250</v>
-      </c>
-      <c r="F19" s="39">
-        <v>500</v>
-      </c>
-      <c r="G19" s="39">
-        <v>900</v>
-      </c>
-      <c r="H19" s="39">
-        <v>500</v>
-      </c>
-      <c r="I19" s="39">
-        <v>500</v>
-      </c>
-      <c r="J19" s="39">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="42">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="42">
-        <v>4300</v>
-      </c>
-      <c r="E20" s="42">
-        <v>3150</v>
-      </c>
-      <c r="F20" s="42">
-        <v>3800</v>
-      </c>
-      <c r="G20" s="42">
-        <v>3450</v>
-      </c>
-      <c r="H20" s="42">
-        <v>3800</v>
-      </c>
-      <c r="I20" s="42">
-        <v>3800</v>
-      </c>
-      <c r="J20" s="42">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="I21" s="41">
         <v>0</v>
       </c>
-      <c r="D21" s="42">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
-      </c>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="A22" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="41">
         <v>500</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>200</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41">
         <v>0</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>0</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="41">
         <v>0</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="39">
+      <c r="A23" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="38">
         <v>1000</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
         <v>1000</v>
       </c>
-      <c r="E23" s="39">
-        <v>500</v>
-      </c>
-      <c r="F23" s="39">
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="38">
         <v>1000</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <v>1000</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="38">
         <v>1000</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="38">
         <v>1000</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="38">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="A24" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="38">
         <v>200</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <v>200</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="58">
         <v>200</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="38">
         <v>200</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <v>200</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="38">
         <v>200</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="38">
         <v>200</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="38">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="39">
+      <c r="A25" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="38">
         <v>0</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <v>0</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="38">
         <v>0</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <v>0</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="38">
         <v>0</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="38">
         <v>0</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42">
-        <v>498</v>
-      </c>
-      <c r="F26" s="42">
+      <c r="A26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="57">
+        <v>640</v>
+      </c>
+      <c r="F26" s="41">
         <v>0</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>0</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>0</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>0</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42">
+      <c r="A27" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41">
         <v>600</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="A28" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41">
+        <v>500</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="41">
         <v>0</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D29" s="41">
         <v>500</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41">
         <v>1000</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G29" s="41">
         <v>1000</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H29" s="41">
         <v>1000</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I29" s="41">
         <v>1000</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J29" s="41">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="34" t="s">
+    <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
-        <v>129</v>
-      </c>
-      <c r="F29" s="13">
+        <v>-138</v>
+      </c>
+      <c r="F30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
-        <v>77</v>
-      </c>
-      <c r="G29" s="13">
+        <v>-1323</v>
+      </c>
+      <c r="G30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
-        <v>27</v>
-      </c>
-      <c r="H29" s="13">
+        <v>527</v>
+      </c>
+      <c r="H30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
-        <v>77</v>
-      </c>
-      <c r="I29" s="13">
+        <v>577</v>
+      </c>
+      <c r="I30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
-        <v>77</v>
-      </c>
-      <c r="J29" s="13">
+        <v>577</v>
+      </c>
+      <c r="J30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>77</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -7579,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7593,328 +7637,328 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="24">
         <v>11000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>11000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>8800</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>8800</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>8800</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>8800</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>8800</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>8800</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>2000</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>2000</v>
       </c>
-      <c r="E3" s="42">
-        <v>0</v>
-      </c>
-      <c r="F3" s="42">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42">
-        <v>0</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
-        <v>0</v>
+      <c r="E3" s="41">
+        <v>500</v>
+      </c>
+      <c r="F3" s="41">
+        <v>500</v>
+      </c>
+      <c r="G3" s="41">
+        <v>500</v>
+      </c>
+      <c r="H3" s="41">
+        <v>500</v>
+      </c>
+      <c r="I3" s="41">
+        <v>500</v>
+      </c>
+      <c r="J3" s="41">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>7700</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>7700</v>
       </c>
-      <c r="E4" s="39">
-        <v>7500</v>
-      </c>
-      <c r="F4" s="39">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="39">
-        <v>7500</v>
-      </c>
-      <c r="H4" s="39">
-        <v>7500</v>
-      </c>
-      <c r="I4" s="39">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="39">
-        <v>7500</v>
+      <c r="E4" s="38">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="38">
+        <v>7000</v>
+      </c>
+      <c r="G4" s="38">
+        <v>7000</v>
+      </c>
+      <c r="H4" s="38">
+        <v>7000</v>
+      </c>
+      <c r="I4" s="38">
+        <v>7000</v>
+      </c>
+      <c r="J4" s="38">
+        <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="39">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="38">
         <v>110</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>110</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>110</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>110</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>110</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>110</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>110</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="39">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="38">
         <v>900</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>900</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>900</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>900</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>900</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>900</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>900</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="A7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>0</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>0</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>0</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>0</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="42">
+      <c r="A8" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="41">
         <v>0</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>200</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>200</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>200</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>200</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>200</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>200</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="A9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="41">
         <v>0</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>0</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>0</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>0</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>0</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>0</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="49" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="48">
+    <row r="10" spans="1:10" s="48" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-05-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-05-01])</f>
         <v>290</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-06-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-06-01])</f>
         <v>90</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-07-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-07-01])</f>
         <v>90</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-08-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-08-01])</f>
         <v>90</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-09-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-09-01])</f>
         <v>90</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-10-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-10-01])</f>
         <v>90</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-11-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-11-01])</f>
         <v>90</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-12-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-12-01])</f>
         <v>90</v>
       </c>
@@ -7946,71 +7990,71 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>500</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>1500</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>250</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>500</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>500</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>500</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>500</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
@@ -8042,7 +8086,7 @@
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -8074,9 +8118,9 @@
     </row>
     <row r="5" spans="1:10" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13">
@@ -8122,10 +8166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6751DF37-EEC1-1D4A-AB4A-07B4665E1B14}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8137,42 +8181,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="22">
         <v>2000</v>
@@ -8181,94 +8225,112 @@
         <v>0</v>
       </c>
       <c r="E2" s="22">
+        <v>500</v>
+      </c>
+      <c r="F2" s="22">
+        <v>500</v>
+      </c>
+      <c r="G2" s="22">
+        <v>500</v>
+      </c>
+      <c r="H2" s="22">
+        <v>500</v>
+      </c>
+      <c r="I2" s="22">
+        <v>500</v>
+      </c>
+      <c r="J2" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53">
+        <v>3550</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="F2" s="22">
+      <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="G2" s="22">
+      <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="H2" s="22">
+      <c r="F4" s="38">
         <v>0</v>
       </c>
-      <c r="I2" s="22">
+      <c r="G4" s="38">
         <v>0</v>
       </c>
-      <c r="J2" s="22">
+      <c r="H4" s="38">
         <v>0</v>
       </c>
+      <c r="I4" s="38">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="34" t="s">
+    <row r="5" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-05-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-05-01])</f>
         <v>2000</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-06-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-06-01])</f>
         <v>0</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-07-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-07-01])</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
+        <v>-3050</v>
+      </c>
+      <c r="F5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-08-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-08-01])</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="37">
+        <v>500</v>
+      </c>
+      <c r="G5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-09-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-09-01])</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="37">
+        <v>500</v>
+      </c>
+      <c r="H5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-10-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-10-01])</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
+        <v>500</v>
+      </c>
+      <c r="I5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-11-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-11-01])</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="37">
+        <v>500</v>
+      </c>
+      <c r="J5" s="36">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-12-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-12-01])</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8283,126 +8345,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE839C-4430-DC49-9027-EDA3E49A4F64}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="4" width="17" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="22" width="17" customWidth="1"/>
     <col min="23" max="34" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
@@ -8501,52 +8563,52 @@
       </c>
     </row>
     <row r="3" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54">
+      <c r="A3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53">
         <v>716601</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
     </row>
     <row r="4" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="13">
@@ -8691,7 +8753,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8705,114 +8767,114 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8">
         <v>1000</v>
@@ -8821,22 +8883,22 @@
         <v>1000</v>
       </c>
       <c r="E2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="I2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="J2" s="8">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K2" s="8">
         <v>1000</v>
@@ -8909,7 +8971,7 @@
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>0</v>
@@ -8920,9 +8982,7 @@
       <c r="D3" s="8">
         <v>1000</v>
       </c>
-      <c r="E3" s="8">
-        <v>500</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8">
         <v>1000</v>
       </c>
@@ -9008,231 +9068,231 @@
       <c r="AH3" s="8"/>
     </row>
     <row r="4" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="54">
+      <c r="A4" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="53">
         <v>10800</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>5400</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <v>5400</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="53">
         <v>5400</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="53">
         <v>5400</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>5400</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54">
         <v>5500</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="54">
         <v>5500</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="54">
         <v>5500</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="54">
         <v>5500</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="54">
         <v>5500</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="54">
         <v>5500</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="54">
         <v>5500</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="54">
         <v>5500</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="54">
         <v>5500</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="54">
         <v>5500</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55">
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54">
         <v>5600</v>
       </c>
-      <c r="X4" s="55">
+      <c r="X4" s="54">
         <v>5600</v>
       </c>
-      <c r="Y4" s="55">
+      <c r="Y4" s="54">
         <v>5600</v>
       </c>
-      <c r="Z4" s="55">
+      <c r="Z4" s="54">
         <v>5600</v>
       </c>
-      <c r="AA4" s="55">
+      <c r="AA4" s="54">
         <v>5600</v>
       </c>
-      <c r="AB4" s="55">
+      <c r="AB4" s="54">
         <v>5600</v>
       </c>
-      <c r="AC4" s="55">
+      <c r="AC4" s="54">
         <v>5600</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="54">
         <v>5600</v>
       </c>
-      <c r="AE4" s="55">
+      <c r="AE4" s="54">
         <v>5600</v>
       </c>
-      <c r="AF4" s="55">
+      <c r="AF4" s="54">
         <v>5600</v>
       </c>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="A5" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="53">
         <v>0</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="A6" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="53">
         <v>500</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55">
+      <c r="A7" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54">
         <v>22000</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54">
         <v>23000</v>
       </c>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>26</v>
+      <c r="A8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</f>
@@ -9244,27 +9304,27 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</f>
-        <v>-4400</v>
+        <v>-4650</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</f>
-        <v>-3900</v>
+        <v>-3650</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</f>
-        <v>-3900</v>
+        <v>-3650</v>
       </c>
       <c r="H8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</f>
-        <v>-3900</v>
+        <v>-3650</v>
       </c>
       <c r="I8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</f>
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="J8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</f>
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="K8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</f>
@@ -9389,137 +9449,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>200</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>200</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>200</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>200</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>200</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <v>200</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <v>200</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="30">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="A3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="32">
         <v>0</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="51" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="52">
+      <c r="B4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-05-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-05-01])</f>
         <v>200</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-06-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-06-01])</f>
         <v>200</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-07-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-07-01])</f>
         <v>200</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-08-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-08-01])</f>
         <v>200</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-09-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-09-01])</f>
         <v>200</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-10-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-10-01])</f>
         <v>200</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-11-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-11-01])</f>
         <v>200</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="51">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-12-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-12-01])</f>
         <v>200</v>
       </c>
@@ -9550,39 +9610,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
@@ -9612,10 +9672,10 @@
     </row>
     <row r="3" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19">
@@ -9632,10 +9692,10 @@
     </row>
     <row r="4" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -9650,10 +9710,10 @@
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -9668,10 +9728,10 @@
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -9686,10 +9746,10 @@
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -9704,10 +9764,10 @@
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9721,41 +9781,41 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="37">
+      <c r="A9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-05-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-05-01])</f>
         <v>0</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-06-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-06-01])</f>
         <v>-500</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-07-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-07-01])</f>
         <v>-8000</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-08-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-08-01])</f>
         <v>-500</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-09-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-09-01])</f>
         <v>-500</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-10-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-10-01])</f>
         <v>-5000</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-11-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-11-01])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-12-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-12-01])</f>
         <v>0</v>
       </c>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375FD5B7-93AC-4F43-9229-E34806F105D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC03C3-ECA3-114F-9F2B-218036F933C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" activeTab="5" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -677,7 +677,6 @@
     <xf numFmtId="44" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6669,15 +6668,14 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6762,7 +6760,7 @@
         <v>1325</v>
       </c>
       <c r="F3" s="24">
-        <v>1000</v>
+        <v>1325</v>
       </c>
       <c r="G3" s="24">
         <v>1000</v>
@@ -6786,11 +6784,9 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="24">
-        <v>1000</v>
-      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="24">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G4" s="24">
         <v>1000</v>
@@ -6822,7 +6818,7 @@
         <v>7000</v>
       </c>
       <c r="F5" s="24">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G5" s="24">
         <v>7000</v>
@@ -6948,10 +6944,10 @@
         <v>1700</v>
       </c>
       <c r="E9" s="41">
-        <v>3100</v>
+        <v>1820</v>
       </c>
       <c r="F9" s="41">
-        <v>1700</v>
+        <v>1820</v>
       </c>
       <c r="G9" s="41">
         <v>0</v>
@@ -6986,7 +6982,7 @@
         <v>4530</v>
       </c>
       <c r="G10" s="38">
-        <v>4530</v>
+        <v>5600</v>
       </c>
       <c r="H10" s="38">
         <v>4530</v>
@@ -7306,7 +7302,7 @@
         <v>3500</v>
       </c>
       <c r="G20" s="41">
-        <v>3450</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="41">
         <v>3800</v>
@@ -7396,11 +7392,9 @@
       <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="F23" s="38">
-        <v>1000</v>
-      </c>
+      <c r="F23" s="38"/>
       <c r="G23" s="38">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H23" s="38">
         <v>1000</v>
@@ -7516,7 +7510,9 @@
       <c r="E27" s="41">
         <v>600</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="41">
+        <v>600</v>
+      </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
@@ -7554,9 +7550,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="41"/>
-      <c r="F29" s="41">
-        <v>1000</v>
-      </c>
+      <c r="F29" s="41"/>
       <c r="G29" s="41">
         <v>1000</v>
       </c>
@@ -7587,15 +7581,15 @@
       </c>
       <c r="E30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
-        <v>-138</v>
+        <v>142</v>
       </c>
       <c r="F30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
-        <v>-1323</v>
+        <v>-168</v>
       </c>
       <c r="G30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="H30" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
@@ -7623,8 +7617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7632,7 +7626,8 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7748,7 +7743,7 @@
         <v>7000</v>
       </c>
       <c r="F4" s="38">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G4" s="38">
         <v>7000</v>
@@ -7944,7 +7939,7 @@
       </c>
       <c r="F10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-08-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-08-01])</f>
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="G10" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-09-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-09-01])</f>
@@ -8247,7 +8242,7 @@
       <c r="A3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="53"/>
@@ -8752,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656F070-2FBF-4D4F-8695-FA36A20F8B06}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8886,7 +8881,7 @@
         <v>750</v>
       </c>
       <c r="F2" s="8">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="G2" s="8">
         <v>750</v>
@@ -8983,11 +8978,9 @@
         <v>1000</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>1000</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H3" s="8">
         <v>1000</v>
@@ -9308,11 +9301,11 @@
       </c>
       <c r="F8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</f>
-        <v>-3650</v>
+        <v>-5150</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</f>
-        <v>-3650</v>
+        <v>-4150</v>
       </c>
       <c r="H8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</f>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC03C3-ECA3-114F-9F2B-218036F933C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFF33D-2BA1-7347-B6B7-3954C5F13473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" activeTab="5" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="90">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -305,6 +305,15 @@
   <si>
     <t>Bernice Personal Savings</t>
   </si>
+  <si>
+    <t>Tax Refund</t>
+  </si>
+  <si>
+    <t>Vape</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,6 +453,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -617,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -677,827 +693,13 @@
     <xf numFmtId="44" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="222">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2367,6 +1569,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2391,6 +1617,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2415,6 +1665,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2439,6 +1713,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2463,6 +1761,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2487,6 +1809,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2511,6 +1857,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2535,6 +1905,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2559,6 +1953,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2583,6 +2001,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2607,6 +2049,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2631,6 +2097,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2655,6 +2145,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2679,6 +2193,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2703,6 +2241,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2727,6 +2289,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2751,6 +2337,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2775,6 +2385,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2799,6 +2433,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2823,6 +2481,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2847,6 +2529,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2871,6 +2577,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2895,6 +2625,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2919,6 +2673,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3125,18 +2903,258 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -5989,33 +6007,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J30" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
-  <autoFilter ref="A1:J29" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J32" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+  <autoFilter ref="A1:J31" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="41">
+    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="40">
+    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="39">
+    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="38">
+    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="37">
+    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="36">
+    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="35">
+    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="34">
+    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6043,8 +6061,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J5" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
-  <autoFilter ref="A1:J5" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J6" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+  <autoFilter ref="A1:J6" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0B7A1F2D-D042-6947-B65B-356D4D33EC84}" name="Movement" dataDxfId="195"/>
     <tableColumn id="6" xr3:uid="{8D570864-DCAB-384F-9AAB-0B1B408BA72D}" name="Account Secondary" dataDxfId="194"/>
@@ -6191,102 +6209,102 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A1:AH7" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="100" totalsRowDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="29">
+    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="27">
+    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="26">
+    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="25">
+    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="23">
+    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="21">
+    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="20">
+    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="19">
+    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="18">
+    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="17">
+    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="16">
+    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="15">
+    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="14">
+    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="13">
+    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="12">
+    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="11">
+    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="10">
+    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="9">
+    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="8">
+    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="7">
+    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="6">
+    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="5">
+    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="4">
+    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="3">
+    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="2">
+    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="1">
+    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="0">
+    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6295,7 +6313,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:J4" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1CB6D3F1-51C1-684B-93B6-9FA82F9F067F}" name="Movement"/>
@@ -6314,33 +6332,33 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J8" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-05-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-06-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-07-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-08-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-09-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-10-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-11-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-12-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6665,10 +6683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6676,7 +6694,8 @@
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6763,7 +6782,7 @@
         <v>1325</v>
       </c>
       <c r="G3" s="24">
-        <v>1000</v>
+        <v>1325</v>
       </c>
       <c r="H3" s="24">
         <v>1000</v>
@@ -6789,145 +6808,131 @@
         <v>750</v>
       </c>
       <c r="G4" s="24">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="H4" s="24">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I4" s="24">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="J4" s="24">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
+        <v>5700</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C6" s="24">
         <v>7700</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D6" s="24">
         <v>7700</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E6" s="56">
         <v>7000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="24">
         <v>6800</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G6" s="24">
         <v>7000</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H6" s="24">
         <v>7000</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I6" s="24">
         <v>7000</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J6" s="24">
         <v>7000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="41">
-        <v>500</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="57">
-        <v>250</v>
-      </c>
-      <c r="F6" s="41">
-        <v>500</v>
-      </c>
-      <c r="G6" s="41">
-        <v>500</v>
-      </c>
-      <c r="H6" s="41">
-        <v>500</v>
-      </c>
-      <c r="I6" s="41">
-        <v>500</v>
-      </c>
-      <c r="J6" s="41">
-        <v>500</v>
-      </c>
-      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="D7" s="41">
-        <v>8140</v>
-      </c>
-      <c r="E7" s="41">
-        <v>8140</v>
+        <v>1500</v>
+      </c>
+      <c r="E7" s="57">
+        <v>250</v>
       </c>
       <c r="F7" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="G7" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="H7" s="41">
-        <v>8140</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="41">
-        <v>8140</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="41">
-        <v>8140</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="41">
-        <v>3500</v>
+        <v>8140</v>
       </c>
       <c r="D8" s="41">
-        <v>3578</v>
-      </c>
-      <c r="E8" s="57">
-        <v>3578</v>
+        <v>8140</v>
+      </c>
+      <c r="E8" s="41">
+        <v>8140</v>
       </c>
       <c r="F8" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="G8" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="H8" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="I8" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="J8" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -6935,223 +6940,223 @@
         <v>51</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="41">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="D9" s="41">
-        <v>1700</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1820</v>
+        <v>3578</v>
+      </c>
+      <c r="E9" s="57">
+        <v>3578</v>
       </c>
       <c r="F9" s="41">
-        <v>1820</v>
+        <v>3578</v>
       </c>
       <c r="G9" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="H9" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="I9" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="J9" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="D10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="E10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="F10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="G10" s="38">
-        <v>5600</v>
-      </c>
-      <c r="H10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="I10" s="38">
-        <v>4530</v>
-      </c>
-      <c r="J10" s="38">
-        <v>4530</v>
+      <c r="B10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="41">
+        <v>3100</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1820</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1820</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
+        <v>0</v>
+      </c>
+      <c r="I10" s="41">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="41">
-        <v>110</v>
-      </c>
-      <c r="D11" s="41">
-        <v>170</v>
-      </c>
-      <c r="E11" s="41">
-        <v>170</v>
-      </c>
-      <c r="F11" s="41">
-        <v>170</v>
-      </c>
-      <c r="G11" s="41">
-        <v>170</v>
-      </c>
-      <c r="H11" s="41">
-        <v>170</v>
-      </c>
-      <c r="I11" s="41">
-        <v>170</v>
-      </c>
-      <c r="J11" s="41">
-        <v>170</v>
+      <c r="B11" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="38">
+        <v>4530</v>
+      </c>
+      <c r="D11" s="38">
+        <v>4530</v>
+      </c>
+      <c r="E11" s="38">
+        <v>4530</v>
+      </c>
+      <c r="F11" s="38">
+        <v>4530</v>
+      </c>
+      <c r="G11" s="38">
+        <v>5600</v>
+      </c>
+      <c r="H11" s="38">
+        <v>5100</v>
+      </c>
+      <c r="I11" s="38">
+        <v>5100</v>
+      </c>
+      <c r="J11" s="38">
+        <v>5100</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="38">
-        <v>117</v>
-      </c>
-      <c r="D12" s="38">
-        <v>117</v>
-      </c>
-      <c r="E12" s="38">
-        <v>117</v>
-      </c>
-      <c r="F12" s="38">
-        <v>117</v>
-      </c>
-      <c r="G12" s="38">
-        <v>117</v>
-      </c>
-      <c r="H12" s="38">
-        <v>117</v>
-      </c>
-      <c r="I12" s="38">
-        <v>117</v>
-      </c>
-      <c r="J12" s="38">
-        <v>117</v>
+      <c r="B12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="41">
+        <v>110</v>
+      </c>
+      <c r="D12" s="41">
+        <v>170</v>
+      </c>
+      <c r="E12" s="41">
+        <v>170</v>
+      </c>
+      <c r="F12" s="41">
+        <v>170</v>
+      </c>
+      <c r="G12" s="41">
+        <v>170</v>
+      </c>
+      <c r="H12" s="41">
+        <v>170</v>
+      </c>
+      <c r="I12" s="41">
+        <v>170</v>
+      </c>
+      <c r="J12" s="41">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="41">
-        <v>1050</v>
-      </c>
-      <c r="D13" s="41">
-        <v>988</v>
-      </c>
-      <c r="E13" s="57">
-        <v>988</v>
-      </c>
-      <c r="F13" s="41">
-        <v>988</v>
-      </c>
-      <c r="G13" s="41">
-        <v>988</v>
-      </c>
-      <c r="H13" s="41">
-        <v>988</v>
-      </c>
-      <c r="I13" s="41">
-        <v>988</v>
-      </c>
-      <c r="J13" s="41">
-        <v>988</v>
+      <c r="B13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="38">
+        <v>117</v>
+      </c>
+      <c r="D13" s="38">
+        <v>117</v>
+      </c>
+      <c r="E13" s="38">
+        <v>117</v>
+      </c>
+      <c r="F13" s="38">
+        <v>117</v>
+      </c>
+      <c r="G13" s="38">
+        <v>117</v>
+      </c>
+      <c r="H13" s="38">
+        <v>117</v>
+      </c>
+      <c r="I13" s="38">
+        <v>117</v>
+      </c>
+      <c r="J13" s="38">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="38">
-        <v>1200</v>
-      </c>
-      <c r="D14" s="38">
-        <v>560</v>
-      </c>
-      <c r="E14" s="38">
-        <v>560</v>
-      </c>
-      <c r="F14" s="38">
-        <v>560</v>
-      </c>
-      <c r="G14" s="38">
-        <v>560</v>
-      </c>
-      <c r="H14" s="38">
-        <v>560</v>
-      </c>
-      <c r="I14" s="38">
-        <v>560</v>
-      </c>
-      <c r="J14" s="38">
-        <v>560</v>
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1050</v>
+      </c>
+      <c r="D14" s="41">
+        <v>988</v>
+      </c>
+      <c r="E14" s="57">
+        <v>988</v>
+      </c>
+      <c r="F14" s="41">
+        <v>988</v>
+      </c>
+      <c r="G14" s="41">
+        <v>988</v>
+      </c>
+      <c r="H14" s="41">
+        <v>988</v>
+      </c>
+      <c r="I14" s="41">
+        <v>988</v>
+      </c>
+      <c r="J14" s="41">
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="41">
-        <v>440</v>
-      </c>
-      <c r="D15" s="41">
-        <v>440</v>
-      </c>
-      <c r="E15" s="41">
-        <v>440</v>
-      </c>
-      <c r="F15" s="41">
-        <v>440</v>
-      </c>
-      <c r="G15" s="41">
-        <v>440</v>
-      </c>
-      <c r="H15" s="41">
-        <v>440</v>
-      </c>
-      <c r="I15" s="41">
-        <v>440</v>
-      </c>
-      <c r="J15" s="41">
-        <v>440</v>
+      <c r="B15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="38">
+        <v>560</v>
+      </c>
+      <c r="E15" s="38">
+        <v>560</v>
+      </c>
+      <c r="F15" s="38">
+        <v>560</v>
+      </c>
+      <c r="G15" s="38">
+        <v>560</v>
+      </c>
+      <c r="H15" s="38">
+        <v>560</v>
+      </c>
+      <c r="I15" s="38">
+        <v>610</v>
+      </c>
+      <c r="J15" s="38">
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7159,159 +7164,159 @@
         <v>51</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16" s="41">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="D16" s="41">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="H16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J16" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="D17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="E17" s="58">
-        <v>3500</v>
-      </c>
-      <c r="F17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="H17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="I17" s="38">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="38">
-        <v>3500</v>
+      <c r="B17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="41">
+        <v>600</v>
+      </c>
+      <c r="D17" s="41">
+        <v>600</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="41">
+        <v>0</v>
+      </c>
+      <c r="J17" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="57">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="41">
-        <v>1000</v>
+      <c r="B18" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="58">
+        <v>3500</v>
+      </c>
+      <c r="F18" s="38">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="38">
+        <v>3500</v>
+      </c>
+      <c r="H18" s="38">
+        <v>4500</v>
+      </c>
+      <c r="I18" s="38">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="38">
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="38">
+      <c r="B19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="41">
         <v>1000</v>
       </c>
-      <c r="D19" s="38">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="58">
-        <v>250</v>
-      </c>
-      <c r="F19" s="38">
-        <v>500</v>
-      </c>
-      <c r="G19" s="38">
-        <v>900</v>
-      </c>
-      <c r="H19" s="38">
-        <v>500</v>
-      </c>
-      <c r="I19" s="38">
-        <v>500</v>
-      </c>
-      <c r="J19" s="38">
-        <v>500</v>
+      <c r="D19" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="41">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="41">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="41">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="41">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="41">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="41">
-        <v>4300</v>
-      </c>
-      <c r="E20" s="41">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="41">
-        <v>3500</v>
-      </c>
-      <c r="G20" s="41">
-        <v>3200</v>
-      </c>
-      <c r="H20" s="41">
-        <v>3800</v>
-      </c>
-      <c r="I20" s="41">
-        <v>3800</v>
-      </c>
-      <c r="J20" s="41">
-        <v>3800</v>
+      <c r="B20" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="58">
+        <v>250</v>
+      </c>
+      <c r="F20" s="38">
+        <v>500</v>
+      </c>
+      <c r="G20" s="38">
+        <v>900</v>
+      </c>
+      <c r="H20" s="38">
+        <v>300</v>
+      </c>
+      <c r="I20" s="38">
+        <v>300</v>
+      </c>
+      <c r="J20" s="38">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7319,47 +7324,49 @@
         <v>51</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C21" s="41">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="41">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E21" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G21" s="41">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H21" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I21" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J21" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C22" s="41">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D22" s="41">
-        <v>200</v>
-      </c>
-      <c r="E22" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
       <c r="F22" s="41">
         <v>0</v>
       </c>
@@ -7380,30 +7387,30 @@
       <c r="A23" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="38">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="38">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="B23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="41">
+        <v>500</v>
+      </c>
+      <c r="D23" s="41">
+        <v>200</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41">
         <v>0</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38">
-        <v>500</v>
-      </c>
-      <c r="H23" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="38">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="38">
-        <v>1000</v>
+      <c r="G23" s="41">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7411,31 +7418,29 @@
         <v>51</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C24" s="38">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="38">
-        <v>200</v>
-      </c>
-      <c r="E24" s="58">
-        <v>200</v>
-      </c>
-      <c r="F24" s="38">
-        <v>200</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="38"/>
       <c r="G24" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H24" s="38">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="I24" s="38">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="J24" s="38">
-        <v>200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7443,58 +7448,62 @@
         <v>51</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D25" s="38">
-        <v>0</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E25" s="58">
+        <v>200</v>
       </c>
       <c r="F25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J25" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="57">
-        <v>640</v>
-      </c>
-      <c r="F26" s="41">
+      <c r="B26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="38">
         <v>0</v>
       </c>
-      <c r="G26" s="41">
+      <c r="D26" s="38">
         <v>0</v>
       </c>
-      <c r="H26" s="41">
+      <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="I26" s="41">
+      <c r="F26" s="38">
         <v>0</v>
       </c>
-      <c r="J26" s="41">
+      <c r="G26" s="38">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="J26" s="38">
         <v>0</v>
       </c>
     </row>
@@ -7503,33 +7512,43 @@
         <v>51</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="41">
-        <v>600</v>
+      <c r="E27" s="57">
+        <v>640</v>
       </c>
       <c r="F27" s="41">
-        <v>600</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="41">
+        <v>0</v>
+      </c>
+      <c r="J27" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="41">
+        <v>600</v>
+      </c>
       <c r="F28" s="41">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -7537,71 +7556,109 @@
       <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41">
+        <v>500</v>
+      </c>
+      <c r="G29" s="41">
+        <v>500</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C31" s="41">
         <v>0</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D31" s="41">
         <v>500</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="59">
         <v>1000</v>
       </c>
-      <c r="H29" s="41">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J29" s="41">
-        <v>1000</v>
+      <c r="H31" s="41">
+        <v>5000</v>
+      </c>
+      <c r="I31" s="41">
+        <v>500</v>
+      </c>
+      <c r="J31" s="41">
+        <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+    <row r="32" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B32" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
         <v>142</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
         <v>-168</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
-        <v>207</v>
-      </c>
-      <c r="H30" s="13">
+        <v>282</v>
+      </c>
+      <c r="H32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
-        <v>577</v>
-      </c>
-      <c r="I30" s="13">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
-        <v>577</v>
-      </c>
-      <c r="J30" s="13">
+        <v>457</v>
+      </c>
+      <c r="J32" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>577</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7618,7 +7675,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7626,8 +7683,8 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7968,10 +8025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCEDF0D-72A7-F24E-9B15-0D8218302531}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7980,7 +8037,8 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8080,75 +8138,99 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>110</v>
+      </c>
+      <c r="H4" s="19">
+        <v>110</v>
+      </c>
+      <c r="I4" s="19">
+        <v>110</v>
+      </c>
+      <c r="J4" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <v>230</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="12">
         <v>230</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F5" s="12">
         <v>230</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G5" s="12">
         <v>230</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H5" s="12">
         <v>230</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I5" s="12">
         <v>230</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J5" s="12">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-05-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-05-01])</f>
         <v>500</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-06-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-06-01])</f>
         <v>1070</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-07-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-07-01])</f>
         <v>-180</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-08-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-08-01])</f>
         <v>70</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-09-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-09-01])</f>
-        <v>70</v>
-      </c>
-      <c r="H5" s="13">
+        <v>-40</v>
+      </c>
+      <c r="H6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-10-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-10-01])</f>
-        <v>70</v>
-      </c>
-      <c r="I5" s="13">
+        <v>-40</v>
+      </c>
+      <c r="I6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-11-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-11-01])</f>
-        <v>70</v>
-      </c>
-      <c r="J5" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-12-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-12-01])</f>
-        <v>70</v>
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
@@ -8747,7 +8829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656F070-2FBF-4D4F-8695-FA36A20F8B06}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFF33D-2BA1-7347-B6B7-3954C5F13473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14543A7-9672-D248-9DDD-0B2EC1176951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="91">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -314,6 +314,9 @@
   <si>
     <t>Gaming</t>
   </si>
+  <si>
+    <t>Retained Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,8 +463,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +544,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -633,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -695,6 +717,9 @@
     <xf numFmtId="44" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6007,8 +6032,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J32" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
-  <autoFilter ref="A1:J31" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J33" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+  <autoFilter ref="A1:J32" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
     <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="9"/>
     <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="8"/>
@@ -6042,8 +6067,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:J10" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
-  <autoFilter ref="A1:J10" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:J11" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
+  <autoFilter ref="A1:J11" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
     <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="207"/>
     <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="206"/>
@@ -6206,8 +6231,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
-  <autoFilter ref="A1:AH7" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH9" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A1:AH8" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="100"/>
     <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="99" totalsRowDxfId="98"/>
@@ -6683,10 +6708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6694,8 +6719,8 @@
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6810,9 +6835,7 @@
       <c r="G4" s="24">
         <v>1250</v>
       </c>
-      <c r="H4" s="24">
-        <v>1250</v>
-      </c>
+      <c r="H4" s="24"/>
       <c r="I4" s="24">
         <v>1250</v>
       </c>
@@ -6825,7 +6848,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -6833,138 +6856,124 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
+        <v>5700</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C7" s="24">
         <v>7700</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="24">
         <v>7700</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E7" s="56">
         <v>7000</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F7" s="24">
         <v>6800</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G7" s="24">
         <v>7000</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H7" s="24">
+        <v>7300</v>
+      </c>
+      <c r="I7" s="24">
         <v>7000</v>
       </c>
-      <c r="I6" s="24">
+      <c r="J7" s="24">
         <v>7000</v>
       </c>
-      <c r="J6" s="24">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="41">
-        <v>500</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="57">
-        <v>250</v>
-      </c>
-      <c r="F7" s="41">
-        <v>500</v>
-      </c>
-      <c r="G7" s="41">
-        <v>500</v>
-      </c>
-      <c r="H7" s="41">
-        <v>1200</v>
-      </c>
-      <c r="I7" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="41">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="D8" s="41">
-        <v>8140</v>
-      </c>
-      <c r="E8" s="41">
-        <v>8140</v>
+        <v>1500</v>
+      </c>
+      <c r="E8" s="57">
+        <v>250</v>
       </c>
       <c r="F8" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="G8" s="41">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="H8" s="41">
-        <v>8140</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="41">
-        <v>8140</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="41">
-        <v>8140</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="41">
-        <v>3500</v>
+        <v>8140</v>
       </c>
       <c r="D9" s="41">
-        <v>3578</v>
-      </c>
-      <c r="E9" s="57">
-        <v>3578</v>
+        <v>8140</v>
+      </c>
+      <c r="E9" s="41">
+        <v>8140</v>
       </c>
       <c r="F9" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="G9" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="H9" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="I9" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="J9" s="41">
-        <v>3578</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -6972,223 +6981,223 @@
         <v>51</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="41">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="D10" s="41">
-        <v>1700</v>
-      </c>
-      <c r="E10" s="41">
-        <v>1820</v>
+        <v>3578</v>
+      </c>
+      <c r="E10" s="57">
+        <v>3578</v>
       </c>
       <c r="F10" s="41">
-        <v>1820</v>
+        <v>3578</v>
       </c>
       <c r="G10" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="H10" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="I10" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="J10" s="41">
-        <v>0</v>
+        <v>3578</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="38">
-        <v>4530</v>
-      </c>
-      <c r="D11" s="38">
-        <v>4530</v>
-      </c>
-      <c r="E11" s="38">
-        <v>4530</v>
-      </c>
-      <c r="F11" s="38">
-        <v>4530</v>
-      </c>
-      <c r="G11" s="38">
-        <v>5600</v>
-      </c>
-      <c r="H11" s="38">
-        <v>5100</v>
-      </c>
-      <c r="I11" s="38">
-        <v>5100</v>
-      </c>
-      <c r="J11" s="38">
-        <v>5100</v>
+      <c r="B11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="41">
+        <v>3100</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E11" s="41">
+        <v>1820</v>
+      </c>
+      <c r="F11" s="41">
+        <v>1820</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41">
+        <v>0</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="41">
-        <v>110</v>
-      </c>
-      <c r="D12" s="41">
-        <v>170</v>
-      </c>
-      <c r="E12" s="41">
-        <v>170</v>
-      </c>
-      <c r="F12" s="41">
-        <v>170</v>
-      </c>
-      <c r="G12" s="41">
-        <v>170</v>
-      </c>
-      <c r="H12" s="41">
-        <v>170</v>
-      </c>
-      <c r="I12" s="41">
-        <v>170</v>
-      </c>
-      <c r="J12" s="41">
-        <v>170</v>
+      <c r="B12" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="38">
+        <v>4530</v>
+      </c>
+      <c r="D12" s="38">
+        <v>4530</v>
+      </c>
+      <c r="E12" s="38">
+        <v>4530</v>
+      </c>
+      <c r="F12" s="38">
+        <v>4530</v>
+      </c>
+      <c r="G12" s="38">
+        <v>5600</v>
+      </c>
+      <c r="H12" s="38">
+        <v>5600</v>
+      </c>
+      <c r="I12" s="38">
+        <v>5600</v>
+      </c>
+      <c r="J12" s="38">
+        <v>5600</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="38">
-        <v>117</v>
-      </c>
-      <c r="D13" s="38">
-        <v>117</v>
-      </c>
-      <c r="E13" s="38">
-        <v>117</v>
-      </c>
-      <c r="F13" s="38">
-        <v>117</v>
-      </c>
-      <c r="G13" s="38">
-        <v>117</v>
-      </c>
-      <c r="H13" s="38">
-        <v>117</v>
-      </c>
-      <c r="I13" s="38">
-        <v>117</v>
-      </c>
-      <c r="J13" s="38">
-        <v>117</v>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="41">
+        <v>110</v>
+      </c>
+      <c r="D13" s="41">
+        <v>170</v>
+      </c>
+      <c r="E13" s="41">
+        <v>170</v>
+      </c>
+      <c r="F13" s="41">
+        <v>170</v>
+      </c>
+      <c r="G13" s="41">
+        <v>170</v>
+      </c>
+      <c r="H13" s="41">
+        <v>170</v>
+      </c>
+      <c r="I13" s="41">
+        <v>170</v>
+      </c>
+      <c r="J13" s="41">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="41">
-        <v>1050</v>
-      </c>
-      <c r="D14" s="41">
-        <v>988</v>
-      </c>
-      <c r="E14" s="57">
-        <v>988</v>
-      </c>
-      <c r="F14" s="41">
-        <v>988</v>
-      </c>
-      <c r="G14" s="41">
-        <v>988</v>
-      </c>
-      <c r="H14" s="41">
-        <v>988</v>
-      </c>
-      <c r="I14" s="41">
-        <v>988</v>
-      </c>
-      <c r="J14" s="41">
-        <v>988</v>
+      <c r="B14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="38">
+        <v>117</v>
+      </c>
+      <c r="D14" s="38">
+        <v>117</v>
+      </c>
+      <c r="E14" s="38">
+        <v>117</v>
+      </c>
+      <c r="F14" s="38">
+        <v>117</v>
+      </c>
+      <c r="G14" s="38">
+        <v>117</v>
+      </c>
+      <c r="H14" s="38">
+        <v>117</v>
+      </c>
+      <c r="I14" s="38">
+        <v>117</v>
+      </c>
+      <c r="J14" s="38">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="38">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="38">
-        <v>560</v>
-      </c>
-      <c r="E15" s="38">
-        <v>560</v>
-      </c>
-      <c r="F15" s="38">
-        <v>560</v>
-      </c>
-      <c r="G15" s="38">
-        <v>560</v>
-      </c>
-      <c r="H15" s="38">
-        <v>560</v>
-      </c>
-      <c r="I15" s="38">
-        <v>610</v>
-      </c>
-      <c r="J15" s="38">
-        <v>610</v>
+      <c r="B15" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1050</v>
+      </c>
+      <c r="D15" s="41">
+        <v>988</v>
+      </c>
+      <c r="E15" s="57">
+        <v>988</v>
+      </c>
+      <c r="F15" s="41">
+        <v>988</v>
+      </c>
+      <c r="G15" s="41">
+        <v>988</v>
+      </c>
+      <c r="H15" s="41">
+        <v>988</v>
+      </c>
+      <c r="I15" s="41">
+        <v>988</v>
+      </c>
+      <c r="J15" s="41">
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="41">
-        <v>440</v>
-      </c>
-      <c r="D16" s="41">
-        <v>440</v>
-      </c>
-      <c r="E16" s="41">
-        <v>440</v>
-      </c>
-      <c r="F16" s="41">
-        <v>440</v>
-      </c>
-      <c r="G16" s="41">
-        <v>440</v>
-      </c>
-      <c r="H16" s="41">
-        <v>440</v>
-      </c>
-      <c r="I16" s="41">
-        <v>440</v>
-      </c>
-      <c r="J16" s="41">
-        <v>440</v>
+      <c r="B16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="38">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="38">
+        <v>560</v>
+      </c>
+      <c r="E16" s="38">
+        <v>560</v>
+      </c>
+      <c r="F16" s="38">
+        <v>560</v>
+      </c>
+      <c r="G16" s="38">
+        <v>560</v>
+      </c>
+      <c r="H16" s="38">
+        <v>560</v>
+      </c>
+      <c r="I16" s="38">
+        <v>610</v>
+      </c>
+      <c r="J16" s="38">
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7196,159 +7205,159 @@
         <v>51</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" s="41">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="D17" s="41">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="H17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J17" s="41">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="38">
-        <v>3500</v>
-      </c>
-      <c r="D18" s="38">
-        <v>3500</v>
-      </c>
-      <c r="E18" s="58">
-        <v>3500</v>
-      </c>
-      <c r="F18" s="38">
-        <v>3500</v>
-      </c>
-      <c r="G18" s="38">
-        <v>3500</v>
-      </c>
-      <c r="H18" s="38">
-        <v>4500</v>
-      </c>
-      <c r="I18" s="38">
-        <v>4000</v>
-      </c>
-      <c r="J18" s="38">
-        <v>4000</v>
+      <c r="B18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="41">
+        <v>600</v>
+      </c>
+      <c r="D18" s="41">
+        <v>600</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41">
+        <v>0</v>
+      </c>
+      <c r="J18" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="57">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="41">
-        <v>1000</v>
+      <c r="B19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="E19" s="58">
+        <v>3500</v>
+      </c>
+      <c r="F19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="G19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="H19" s="38">
+        <v>4000</v>
+      </c>
+      <c r="I19" s="38">
+        <v>4000</v>
+      </c>
+      <c r="J19" s="38">
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="38">
+      <c r="B20" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="41">
         <v>1000</v>
       </c>
-      <c r="D20" s="38">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="58">
-        <v>250</v>
-      </c>
-      <c r="F20" s="38">
-        <v>500</v>
-      </c>
-      <c r="G20" s="38">
-        <v>900</v>
-      </c>
-      <c r="H20" s="38">
-        <v>300</v>
-      </c>
-      <c r="I20" s="38">
-        <v>300</v>
-      </c>
-      <c r="J20" s="38">
-        <v>300</v>
+      <c r="D20" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="41">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="41">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="41">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="41">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="41">
-        <v>4300</v>
-      </c>
-      <c r="E21" s="41">
-        <v>3000</v>
-      </c>
-      <c r="F21" s="41">
-        <v>3500</v>
-      </c>
-      <c r="G21" s="41">
-        <v>3200</v>
-      </c>
-      <c r="H21" s="41">
-        <v>3500</v>
-      </c>
-      <c r="I21" s="41">
-        <v>3500</v>
-      </c>
-      <c r="J21" s="41">
-        <v>3500</v>
+      <c r="B21" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="58">
+        <v>250</v>
+      </c>
+      <c r="F21" s="38">
+        <v>500</v>
+      </c>
+      <c r="G21" s="38">
+        <v>900</v>
+      </c>
+      <c r="H21" s="38">
+        <v>200</v>
+      </c>
+      <c r="I21" s="38">
+        <v>300</v>
+      </c>
+      <c r="J21" s="38">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7356,47 +7365,49 @@
         <v>51</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C22" s="41">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="41">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="41">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J22" s="41">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="41">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D23" s="41">
-        <v>200</v>
-      </c>
-      <c r="E23" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
       <c r="F23" s="41">
         <v>0</v>
       </c>
@@ -7417,30 +7428,30 @@
       <c r="A24" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="38">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="38">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="B24" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="41">
+        <v>500</v>
+      </c>
+      <c r="D24" s="41">
+        <v>200</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41">
         <v>0</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38">
-        <v>500</v>
-      </c>
-      <c r="H24" s="38">
-        <v>750</v>
-      </c>
-      <c r="I24" s="38">
-        <v>750</v>
-      </c>
-      <c r="J24" s="38">
-        <v>750</v>
+      <c r="G24" s="41">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="41">
+        <v>0</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7448,31 +7459,29 @@
         <v>51</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C25" s="38">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="38">
-        <v>200</v>
-      </c>
-      <c r="E25" s="58">
-        <v>200</v>
-      </c>
-      <c r="F25" s="38">
-        <v>200</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0</v>
+      </c>
+      <c r="F25" s="38"/>
       <c r="G25" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H25" s="38">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="38">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="J25" s="38">
-        <v>200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7480,58 +7489,62 @@
         <v>51</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C26" s="38">
+        <v>200</v>
+      </c>
+      <c r="D26" s="38">
+        <v>200</v>
+      </c>
+      <c r="E26" s="58">
+        <v>200</v>
+      </c>
+      <c r="F26" s="38">
+        <v>200</v>
+      </c>
+      <c r="G26" s="38">
+        <v>200</v>
+      </c>
+      <c r="H26" s="61">
         <v>0</v>
       </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0</v>
-      </c>
-      <c r="G26" s="38">
-        <v>0</v>
-      </c>
-      <c r="H26" s="38">
-        <v>0</v>
-      </c>
       <c r="I26" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J26" s="38">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="57">
-        <v>640</v>
-      </c>
-      <c r="F27" s="41">
+      <c r="B27" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="38">
         <v>0</v>
       </c>
-      <c r="G27" s="41">
+      <c r="D27" s="38">
         <v>0</v>
       </c>
-      <c r="H27" s="41">
+      <c r="E27" s="38">
         <v>0</v>
       </c>
-      <c r="I27" s="41">
+      <c r="F27" s="38">
         <v>0</v>
       </c>
-      <c r="J27" s="41">
+      <c r="G27" s="38">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0</v>
+      </c>
+      <c r="J27" s="38">
         <v>0</v>
       </c>
     </row>
@@ -7540,38 +7553,48 @@
         <v>51</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="41">
-        <v>600</v>
+      <c r="E28" s="57">
+        <v>640</v>
       </c>
       <c r="F28" s="41">
-        <v>600</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="41">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="41">
+        <v>600</v>
+      </c>
       <c r="F29" s="41">
-        <v>500</v>
-      </c>
-      <c r="G29" s="41">
-        <v>500</v>
-      </c>
-      <c r="H29" s="41"/>
+        <v>600</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41">
+        <v>580</v>
+      </c>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
     </row>
@@ -7580,85 +7603,101 @@
         <v>51</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41">
-        <v>1000</v>
-      </c>
+      <c r="F30" s="41">
+        <v>500</v>
+      </c>
+      <c r="G30" s="41">
+        <v>500</v>
+      </c>
+      <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="41">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41">
-        <v>500</v>
-      </c>
+      <c r="B31" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
-      <c r="G31" s="59">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="41">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41">
+        <v>500</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="59">
         <v>5000</v>
       </c>
-      <c r="I31" s="41">
+      <c r="H32" s="41"/>
+      <c r="I32" s="41">
         <v>500</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J32" s="41">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B33" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
         <v>142</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
         <v>-168</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
-        <v>282</v>
-      </c>
-      <c r="H32" s="13">
+        <v>1982</v>
+      </c>
+      <c r="H33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
-        <v>7</v>
-      </c>
-      <c r="I32" s="13">
+        <v>-473</v>
+      </c>
+      <c r="I33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
-        <v>457</v>
-      </c>
-      <c r="J32" s="13">
+        <v>-43</v>
+      </c>
+      <c r="J33" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>457</v>
+        <v>-43</v>
       </c>
     </row>
   </sheetData>
@@ -7672,10 +7711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7683,8 +7722,8 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7806,7 +7845,7 @@
         <v>7000</v>
       </c>
       <c r="H4" s="38">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="I4" s="38">
         <v>7000</v>
@@ -7866,18 +7905,10 @@
       <c r="F6" s="38">
         <v>900</v>
       </c>
-      <c r="G6" s="38">
-        <v>900</v>
-      </c>
-      <c r="H6" s="38">
-        <v>900</v>
-      </c>
-      <c r="I6" s="38">
-        <v>900</v>
-      </c>
-      <c r="J6" s="38">
-        <v>900</v>
-      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -7944,75 +7975,93 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41">
+        <v>607</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C10" s="41">
         <v>0</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D10" s="41">
         <v>0</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E10" s="41">
         <v>0</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F10" s="41">
         <v>0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G10" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H10" s="41">
         <v>0</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I10" s="41">
         <v>0</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J10" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="48" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+    <row r="11" spans="1:10" s="48" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-05-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-05-01])</f>
         <v>290</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-06-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-06-01])</f>
         <v>90</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-07-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-07-01])</f>
         <v>90</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-08-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-08-01])</f>
         <v>290</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-09-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-09-01])</f>
-        <v>90</v>
-      </c>
-      <c r="H10" s="47">
+        <v>990</v>
+      </c>
+      <c r="H11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-10-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-10-01])</f>
-        <v>90</v>
-      </c>
-      <c r="I10" s="47">
+        <v>83</v>
+      </c>
+      <c r="I11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-11-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-11-01])</f>
-        <v>90</v>
-      </c>
-      <c r="J10" s="47">
+        <v>990</v>
+      </c>
+      <c r="J11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-12-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-12-01])</f>
-        <v>90</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -8028,7 +8077,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8037,8 +8086,8 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8096,7 +8145,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="24">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I2" s="24">
         <v>500</v>
@@ -8222,7 +8271,7 @@
       </c>
       <c r="H6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-10-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-10-01])</f>
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="I6" s="13">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-11-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-11-01])</f>
@@ -8246,14 +8295,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="16.5" customWidth="1"/>
+    <col min="3" max="7" width="16.5" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8827,10 +8876,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656F070-2FBF-4D4F-8695-FA36A20F8B06}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8838,7 +8887,8 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="22" width="17" customWidth="1"/>
+    <col min="5" max="7" width="17" hidden="1" customWidth="1"/>
+    <col min="8" max="22" width="17" customWidth="1"/>
     <col min="23" max="34" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8969,7 +9019,7 @@
         <v>750</v>
       </c>
       <c r="H2" s="8">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="8">
         <v>750</v>
@@ -9047,232 +9097,232 @@
       <c r="AH2" s="8"/>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1000</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>3495</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+    </row>
+    <row r="4" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>500</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H4" s="8">
         <v>1000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I4" s="8">
         <v>1000</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4" s="8">
         <v>1000</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4" s="8">
         <v>5000</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L4" s="8">
         <v>5000</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M4" s="8">
         <v>5000</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N4" s="8">
         <v>5000</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O4" s="8">
         <v>5000</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P4" s="8">
         <v>5000</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q4" s="8">
         <v>6000</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R4" s="8">
         <v>6000</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S4" s="8">
         <v>6000</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T4" s="8">
         <v>6000</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U4" s="8">
         <v>6000</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V4" s="8">
         <v>6000</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W4" s="8">
         <v>6000</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X4" s="8">
         <v>6000</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y4" s="8">
         <v>6000</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z4" s="8">
         <v>6000</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA4" s="8">
         <v>6000</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB4" s="8">
         <v>6000</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC4" s="8">
         <v>6000</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD4" s="8">
         <v>6000</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE4" s="8">
         <v>6000</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF4" s="8">
         <v>6000</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="53">
-        <v>10800</v>
-      </c>
-      <c r="D4" s="53">
-        <v>5400</v>
-      </c>
-      <c r="E4" s="53">
-        <v>5400</v>
-      </c>
-      <c r="F4" s="53">
-        <v>5400</v>
-      </c>
-      <c r="G4" s="53">
-        <v>5400</v>
-      </c>
-      <c r="H4" s="53">
-        <v>5400</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="L4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="M4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="N4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="O4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="P4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="Q4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="R4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="S4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="T4" s="54">
-        <v>5500</v>
-      </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="X4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="Y4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="Z4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AA4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AB4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AC4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AD4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AE4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AF4" s="54">
-        <v>5600</v>
-      </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" s="53">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+        <v>10800</v>
+      </c>
+      <c r="D5" s="53">
+        <v>5400</v>
+      </c>
+      <c r="E5" s="53">
+        <v>5400</v>
+      </c>
+      <c r="F5" s="53">
+        <v>5400</v>
+      </c>
+      <c r="G5" s="53">
+        <v>5400</v>
+      </c>
+      <c r="H5" s="53">
+        <v>5400</v>
+      </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
+      <c r="K5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="L5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="M5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="N5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="O5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="P5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="R5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="S5" s="54">
+        <v>5500</v>
+      </c>
+      <c r="T5" s="54">
+        <v>5500</v>
+      </c>
       <c r="U5" s="54"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
+      <c r="W5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="X5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="Y5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="Z5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AA5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AB5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AC5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AD5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AE5" s="54">
+        <v>5600</v>
+      </c>
+      <c r="AF5" s="54">
+        <v>5600</v>
+      </c>
       <c r="AG5" s="54"/>
       <c r="AH5" s="54"/>
     </row>
@@ -9281,10 +9331,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="53">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -9323,9 +9373,11 @@
         <v>51</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="C7" s="53">
+        <v>500</v>
+      </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
@@ -9333,9 +9385,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="54">
-        <v>22000</v>
-      </c>
+      <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
@@ -9347,9 +9397,7 @@
       <c r="T7" s="54"/>
       <c r="U7" s="54"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="54">
-        <v>23000</v>
-      </c>
+      <c r="W7" s="54"/>
       <c r="X7" s="54"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="54"/>
@@ -9362,138 +9410,182 @@
       <c r="AG7" s="54"/>
       <c r="AH7" s="54"/>
     </row>
-    <row r="8" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54">
+        <v>22000</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54">
+        <v>23000</v>
+      </c>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+    </row>
+    <row r="9" spans="1:34" ht="22" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</f>
         <v>-9300</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</f>
         <v>-3400</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</f>
         <v>-4650</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</f>
         <v>-5150</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</f>
         <v>-4150</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</f>
-        <v>-3650</v>
-      </c>
-      <c r="I8" s="13">
+        <v>95</v>
+      </c>
+      <c r="I9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</f>
         <v>1750</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</f>
         <v>1750</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</f>
         <v>-21500</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</f>
         <v>500</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</f>
         <v>500</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</f>
         <v>500</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</f>
         <v>500</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</f>
         <v>500</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</f>
         <v>1500</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</f>
         <v>1500</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</f>
         <v>1500</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</f>
         <v>1500</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</f>
         <v>7000</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</f>
         <v>7000</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</f>
         <v>-21600</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</f>
         <v>1400</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</f>
         <v>1400</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</f>
         <v>1400</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</f>
         <v>1400</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</f>
         <v>1400</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</f>
         <v>1400</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</f>
         <v>1400</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</f>
         <v>1400</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</f>
         <v>1400</v>
       </c>
-      <c r="AG8" s="13">
+      <c r="AG9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="AH9" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</f>
         <v>0</v>
       </c>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14543A7-9672-D248-9DDD-0B2EC1176951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F514B-3EA1-6F4A-9F27-A4254BC174C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-48660" yWindow="-5900" windowWidth="48660" windowHeight="28300" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="93">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -317,6 +317,12 @@
   <si>
     <t>Retained Balance</t>
   </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,6 +476,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -655,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -720,6 +733,7 @@
     <xf numFmtId="44" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6032,8 +6046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J33" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
-  <autoFilter ref="A1:J32" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J35" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+  <autoFilter ref="A1:J34" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
     <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="9"/>
     <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="8"/>
@@ -6708,10 +6722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="163" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6719,8 +6733,8 @@
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6837,10 +6851,10 @@
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="J4" s="24">
-        <v>1250</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -6858,8 +6872,12 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="24">
+        <v>3500</v>
+      </c>
+      <c r="J5" s="24">
+        <v>800</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
@@ -6905,10 +6923,10 @@
         <v>7300</v>
       </c>
       <c r="I7" s="24">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="J7" s="24">
-        <v>7000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -6937,10 +6955,10 @@
         <v>1000</v>
       </c>
       <c r="I8" s="41">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="J8" s="41">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -7354,10 +7372,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="38">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J21" s="38">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7389,7 +7407,7 @@
         <v>3500</v>
       </c>
       <c r="J22" s="41">
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7478,10 +7496,10 @@
         <v>1000</v>
       </c>
       <c r="I25" s="38">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="J25" s="38">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7603,19 +7621,17 @@
         <v>51</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="41">
-        <v>500</v>
-      </c>
-      <c r="G30" s="41">
-        <v>500</v>
-      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="I30" s="64">
+        <v>2227</v>
+      </c>
       <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7623,7 +7639,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -7631,73 +7647,111 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="41">
+        <v>2065</v>
+      </c>
+      <c r="J31" s="41">
+        <v>1350</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41">
+        <v>500</v>
+      </c>
+      <c r="G32" s="41">
+        <v>500</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C34" s="41">
         <v>0</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D34" s="41">
         <v>500</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="59">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="59">
         <v>5000</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41">
         <v>500</v>
       </c>
-      <c r="J32" s="41">
-        <v>500</v>
-      </c>
     </row>
-    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B35" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
         <v>142</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
         <v>-168</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
         <v>1982</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
         <v>-473</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
-        <v>-43</v>
-      </c>
-      <c r="J33" s="13">
+        <v>65</v>
+      </c>
+      <c r="J35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>-43</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7713,8 +7767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7722,8 +7776,8 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7816,10 +7870,10 @@
         <v>500</v>
       </c>
       <c r="I3" s="41">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J3" s="41">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7848,10 +7902,10 @@
         <v>7300</v>
       </c>
       <c r="I4" s="38">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="J4" s="38">
-        <v>7000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -8057,11 +8111,11 @@
       </c>
       <c r="I11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-11-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-11-01])</f>
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="J11" s="47">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-12-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-12-01])</f>
-        <v>990</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F514B-3EA1-6F4A-9F27-A4254BC174C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A583CD8-19A1-624A-8C6D-B1DC7300C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48660" yWindow="-5900" windowWidth="48660" windowHeight="28300" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -6725,7 +6725,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="163" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6830,7 +6830,7 @@
         <v>1000</v>
       </c>
       <c r="J3" s="24">
-        <v>1000</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -6853,9 +6853,7 @@
       <c r="I4" s="24">
         <v>250</v>
       </c>
-      <c r="J4" s="24">
-        <v>250</v>
-      </c>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
@@ -6875,9 +6873,7 @@
       <c r="I5" s="24">
         <v>3500</v>
       </c>
-      <c r="J5" s="24">
-        <v>800</v>
-      </c>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
@@ -6958,7 +6954,7 @@
         <v>750</v>
       </c>
       <c r="J8" s="41">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -7311,7 +7307,7 @@
         <v>4000</v>
       </c>
       <c r="J19" s="38">
-        <v>4000</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7375,7 +7371,7 @@
         <v>150</v>
       </c>
       <c r="J21" s="38">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7407,7 +7403,7 @@
         <v>3500</v>
       </c>
       <c r="J22" s="41">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7651,7 +7647,7 @@
         <v>2065</v>
       </c>
       <c r="J31" s="41">
-        <v>1350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7710,9 +7706,7 @@
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="41">
-        <v>500</v>
-      </c>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
@@ -7751,7 +7745,7 @@
       </c>
       <c r="J35" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>457</v>
+        <v>-924</v>
       </c>
     </row>
   </sheetData>
@@ -7767,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source files/budget_jeanre.xlsx
+++ b/source files/budget_jeanre.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A583CD8-19A1-624A-8C6D-B1DC7300C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BD103-9647-8C4F-BCFE-7F40524739FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
-    <sheet name="Bernice Transactional" sheetId="20" r:id="rId2"/>
-    <sheet name="Jeanre Credit Card" sheetId="19" r:id="rId3"/>
-    <sheet name="Bernice Credit Card" sheetId="21" r:id="rId4"/>
-    <sheet name="Home Loan" sheetId="26" r:id="rId5"/>
-    <sheet name="Jodine U" sheetId="12" r:id="rId6"/>
-    <sheet name="Emergency" sheetId="22" r:id="rId7"/>
-    <sheet name="Personal Wealth" sheetId="14" r:id="rId8"/>
+    <sheet name="Dec 2025 calcs" sheetId="27" r:id="rId2"/>
+    <sheet name="Bernice Transactional" sheetId="20" r:id="rId3"/>
+    <sheet name="Jeanre Credit Card" sheetId="19" r:id="rId4"/>
+    <sheet name="Bernice Credit Card" sheetId="21" r:id="rId5"/>
+    <sheet name="Home Loan" sheetId="26" r:id="rId6"/>
+    <sheet name="Jodine U" sheetId="12" r:id="rId7"/>
+    <sheet name="Emergency" sheetId="22" r:id="rId8"/>
+    <sheet name="Personal Wealth" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -323,6 +324,45 @@
   <si>
     <t>Events</t>
   </si>
+  <si>
+    <t>things to pay</t>
+  </si>
+  <si>
+    <t>amount to pay</t>
+  </si>
+  <si>
+    <t>no-choice</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>previous month insurance</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>jodine</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Jan Account</t>
+  </si>
+  <si>
+    <t>jan spend</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,8 +523,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +615,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FFF77"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,11 +720,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -676,7 +747,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -734,248 +804,46 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="222">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+  <dxfs count="223">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDAF2D0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5768,6 +5636,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5792,6 +5684,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5816,6 +5732,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5840,6 +5780,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5864,6 +5828,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5888,6 +5876,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5912,6 +5924,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5936,6 +5972,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5950,6 +6010,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -5958,6 +6042,30 @@
         <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -6046,33 +6154,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J35" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J35" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
   <autoFilter ref="A1:J34" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="215">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="6">
+    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="213">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="211">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="209">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="3">
+    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="208" totalsRowDxfId="207">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="2">
+    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="206" totalsRowDxfId="205">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="1">
+    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="204" totalsRowDxfId="203">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="0">
+    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="202" totalsRowDxfId="201">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6081,162 +6189,163 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:J11" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
-  <autoFilter ref="A1:J11" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
-  <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="206"/>
-    <tableColumn id="7" xr3:uid="{224B2C86-CE9C-9740-8863-A79E9BA6474C}" name="2024-05-01" dataDxfId="205"/>
-    <tableColumn id="8" xr3:uid="{86C20A53-81CA-5C44-94E5-DFEF4FEBDB46}" name="2024-06-01" dataDxfId="204"/>
-    <tableColumn id="9" xr3:uid="{7A5EB71F-2A37-D94A-A511-CB581024F945}" name="2024-07-01" dataDxfId="203"/>
-    <tableColumn id="10" xr3:uid="{4323FC88-E3C5-C942-A248-8725F58D05F1}" name="2024-08-01" dataDxfId="202"/>
-    <tableColumn id="11" xr3:uid="{A67EE3D4-5BA4-CB4C-A243-EC07A75B9A2A}" name="2024-09-01" dataDxfId="201"/>
-    <tableColumn id="12" xr3:uid="{D8311E55-3FCF-5646-9D4B-8E41AACE8122}" name="2024-10-01" dataDxfId="200"/>
-    <tableColumn id="13" xr3:uid="{1068DD40-0163-AB4F-BD01-F087C1DA52FC}" name="2024-11-01" dataDxfId="199"/>
-    <tableColumn id="14" xr3:uid="{1979ACD9-F9BF-B64F-8FAE-C5E1FD6DB39A}" name="2024-12-01" dataDxfId="198"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="Table325" displayName="Table325" ref="A1:K11" totalsRowShown="0" headerRowDxfId="200" dataDxfId="199">
+  <autoFilter ref="A1:K11" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+  <tableColumns count="11">
+    <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="197"/>
+    <tableColumn id="7" xr3:uid="{224B2C86-CE9C-9740-8863-A79E9BA6474C}" name="2024-05-01" dataDxfId="196"/>
+    <tableColumn id="8" xr3:uid="{86C20A53-81CA-5C44-94E5-DFEF4FEBDB46}" name="2024-06-01" dataDxfId="195"/>
+    <tableColumn id="9" xr3:uid="{7A5EB71F-2A37-D94A-A511-CB581024F945}" name="2024-07-01" dataDxfId="194"/>
+    <tableColumn id="10" xr3:uid="{4323FC88-E3C5-C942-A248-8725F58D05F1}" name="2024-08-01" dataDxfId="193"/>
+    <tableColumn id="11" xr3:uid="{A67EE3D4-5BA4-CB4C-A243-EC07A75B9A2A}" name="2024-09-01" dataDxfId="192"/>
+    <tableColumn id="12" xr3:uid="{D8311E55-3FCF-5646-9D4B-8E41AACE8122}" name="2024-10-01" dataDxfId="191"/>
+    <tableColumn id="13" xr3:uid="{1068DD40-0163-AB4F-BD01-F087C1DA52FC}" name="2024-11-01" dataDxfId="190"/>
+    <tableColumn id="14" xr3:uid="{1979ACD9-F9BF-B64F-8FAE-C5E1FD6DB39A}" name="2024-12-01" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{07FFDC36-868C-D84B-8B40-7B280F43AA14}" name="2024-12-02" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J6" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B198D46-04BB-0942-B50C-97F8D19A9484}" name="Table323" displayName="Table323" ref="A1:J6" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
   <autoFilter ref="A1:J6" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B7A1F2D-D042-6947-B65B-356D4D33EC84}" name="Movement" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{8D570864-DCAB-384F-9AAB-0B1B408BA72D}" name="Account Secondary" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{1C5600AD-E9D1-6040-A70C-7F4F4F75639C}" name="2024-05-01" dataDxfId="193"/>
-    <tableColumn id="8" xr3:uid="{A3364F3B-B8BC-434D-A8BB-FFC3B8C71293}" name="2024-06-01" dataDxfId="192"/>
-    <tableColumn id="9" xr3:uid="{1771F61E-E416-CE41-8394-E64B9057B10F}" name="2024-07-01" dataDxfId="191"/>
-    <tableColumn id="10" xr3:uid="{7188F6FE-F410-1741-B1DE-14957C8A5CB8}" name="2024-08-01" dataDxfId="190"/>
-    <tableColumn id="11" xr3:uid="{C2DE6C79-5960-3D4C-B26C-70E7E132D282}" name="2024-09-01" dataDxfId="189"/>
-    <tableColumn id="12" xr3:uid="{F4072681-3F04-0A46-9D9B-9A5803996783}" name="2024-10-01" dataDxfId="188"/>
-    <tableColumn id="13" xr3:uid="{AB81E1BD-B0CD-E84E-BC8A-D81316A44B08}" name="2024-11-01" dataDxfId="187"/>
-    <tableColumn id="14" xr3:uid="{7B9D14C4-BF9C-C74A-A14D-9A201AB2AF66}" name="2024-12-01" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{0B7A1F2D-D042-6947-B65B-356D4D33EC84}" name="Movement" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{8D570864-DCAB-384F-9AAB-0B1B408BA72D}" name="Account Secondary" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{1C5600AD-E9D1-6040-A70C-7F4F4F75639C}" name="2024-05-01" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{A3364F3B-B8BC-434D-A8BB-FFC3B8C71293}" name="2024-06-01" dataDxfId="183"/>
+    <tableColumn id="9" xr3:uid="{1771F61E-E416-CE41-8394-E64B9057B10F}" name="2024-07-01" dataDxfId="182"/>
+    <tableColumn id="10" xr3:uid="{7188F6FE-F410-1741-B1DE-14957C8A5CB8}" name="2024-08-01" dataDxfId="181"/>
+    <tableColumn id="11" xr3:uid="{C2DE6C79-5960-3D4C-B26C-70E7E132D282}" name="2024-09-01" dataDxfId="180"/>
+    <tableColumn id="12" xr3:uid="{F4072681-3F04-0A46-9D9B-9A5803996783}" name="2024-10-01" dataDxfId="179"/>
+    <tableColumn id="13" xr3:uid="{AB81E1BD-B0CD-E84E-BC8A-D81316A44B08}" name="2024-11-01" dataDxfId="178"/>
+    <tableColumn id="14" xr3:uid="{7B9D14C4-BF9C-C74A-A14D-9A201AB2AF66}" name="2024-12-01" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}" name="Table3254" displayName="Table3254" ref="A1:J5" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}" name="Table3254" displayName="Table3254" ref="A1:J5" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
   <autoFilter ref="A1:J5" xr:uid="{D9073226-BE95-ED4B-8E84-34502A072542}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{D736239C-8F8A-0A41-855C-2D61D9FA6F03}" name="Movement" dataDxfId="183"/>
-    <tableColumn id="6" xr3:uid="{879B2830-2DB7-7C44-BEEF-A003D5F5C5EF}" name="Account Secondary" dataDxfId="182"/>
-    <tableColumn id="7" xr3:uid="{142EA412-8F0A-D645-9812-6B2B6729A8A4}" name="2024-05-01" dataDxfId="181"/>
-    <tableColumn id="8" xr3:uid="{DD117CB8-2856-0D48-9412-33F2845F937D}" name="2024-06-01" dataDxfId="180"/>
-    <tableColumn id="9" xr3:uid="{C9503397-2C2A-5B4B-84F6-7256EAD4FF82}" name="2024-07-01" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{528B3BEA-F5F6-CA4E-AA11-9CB0EBC907A1}" name="2024-08-01" dataDxfId="178"/>
-    <tableColumn id="11" xr3:uid="{248F2750-40B2-694E-B3E3-8C20B5CD9E09}" name="2024-09-01" dataDxfId="177"/>
-    <tableColumn id="12" xr3:uid="{FB23FE30-E2E2-BE49-A8AF-CCF74A9E5265}" name="2024-10-01" dataDxfId="176"/>
-    <tableColumn id="13" xr3:uid="{B7503BFF-CAE0-234C-B277-0A411884B34E}" name="2024-11-01" dataDxfId="175"/>
-    <tableColumn id="14" xr3:uid="{990DC215-1A0B-E34F-9CD0-E23EE6337BA8}" name="2024-12-01" dataDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{D736239C-8F8A-0A41-855C-2D61D9FA6F03}" name="Movement" dataDxfId="174"/>
+    <tableColumn id="6" xr3:uid="{879B2830-2DB7-7C44-BEEF-A003D5F5C5EF}" name="Account Secondary" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{142EA412-8F0A-D645-9812-6B2B6729A8A4}" name="2024-05-01" dataDxfId="172"/>
+    <tableColumn id="8" xr3:uid="{DD117CB8-2856-0D48-9412-33F2845F937D}" name="2024-06-01" dataDxfId="171"/>
+    <tableColumn id="9" xr3:uid="{C9503397-2C2A-5B4B-84F6-7256EAD4FF82}" name="2024-07-01" dataDxfId="170"/>
+    <tableColumn id="10" xr3:uid="{528B3BEA-F5F6-CA4E-AA11-9CB0EBC907A1}" name="2024-08-01" dataDxfId="169"/>
+    <tableColumn id="11" xr3:uid="{248F2750-40B2-694E-B3E3-8C20B5CD9E09}" name="2024-09-01" dataDxfId="168"/>
+    <tableColumn id="12" xr3:uid="{FB23FE30-E2E2-BE49-A8AF-CCF74A9E5265}" name="2024-10-01" dataDxfId="167"/>
+    <tableColumn id="13" xr3:uid="{B7503BFF-CAE0-234C-B277-0A411884B34E}" name="2024-11-01" dataDxfId="166"/>
+    <tableColumn id="14" xr3:uid="{990DC215-1A0B-E34F-9CD0-E23EE6337BA8}" name="2024-12-01" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2E4C2A8A-A83E-704E-8265-40FE4C35254D}" name="Table3289" displayName="Table3289" ref="A1:AH4" totalsRowCount="1" headerRowDxfId="173" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2E4C2A8A-A83E-704E-8265-40FE4C35254D}" name="Table3289" displayName="Table3289" ref="A1:AH4" totalsRowCount="1" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:AH3" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
+    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
+    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
+    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="133">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="131">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="127">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6245,105 +6354,105 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH9" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH9" totalsRowCount="1" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:AH8" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6352,7 +6461,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}" name="Table5" displayName="Table5" ref="A1:J4" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A1:J4" xr:uid="{7525CAA0-1A50-D140-A5F5-D8D57F9F6C72}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1CB6D3F1-51C1-684B-93B6-9FA82F9F067F}" name="Movement"/>
@@ -6371,33 +6480,33 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D32C6871-545C-FE44-A877-F290E451E1CF}" name="Table32810" displayName="Table32810" ref="A1:J9" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:J8" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="5" xr3:uid="{06CF438D-1451-314D-9C7A-32F80F032CDD}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{D85B60B0-DD6D-9B4D-A4AD-5C8378063533}" name="Account Secondary" totalsRowLabel="Personal Wealth" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{1DFF1C23-E2EA-B34F-AE16-2538AE6684FC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-05-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="8" xr3:uid="{907257EB-F7D6-6546-8554-11888A9984A2}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-06-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="9" xr3:uid="{FE62F661-5418-9F4D-9296-96235170EEE2}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-07-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{EC9FF017-0724-754A-A9F0-748CE63A36A8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-08-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="11" xr3:uid="{7E66D972-3166-8A43-A093-BCA6C3942C4A}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-09-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{840B9A2E-DC2B-9A4F-8617-982B6F6D108A}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-10-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="13" xr3:uid="{0D33C5AC-1054-174A-B4A6-9D8972553972}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-11-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="14" xr3:uid="{DD93DC27-7299-434C-852A-9DE22656D361}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-12-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6724,8 +6833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="163" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" zoomScale="163" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6733,1024 +6842,1114 @@
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>27000</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>27000</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="55">
         <v>21600</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>21600</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>21600</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>21600</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>21600</v>
       </c>
-      <c r="J2" s="24">
-        <v>21600</v>
+      <c r="J2" s="23">
+        <v>25100</v>
+      </c>
+      <c r="K2" s="23">
+        <v>25100</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>1325</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>1325</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>1325</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>1325</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>1325</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>1000</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>1000</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
+        <v>1169</v>
+      </c>
+      <c r="K3" s="23">
         <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>750</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>1250</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
         <v>250</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>3500</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23">
         <v>5700</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>7700</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>7700</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>7000</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>6800</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>7000</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>7300</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>7750</v>
       </c>
-      <c r="J7" s="24">
-        <v>7750</v>
+      <c r="J7" s="23">
+        <v>8000</v>
+      </c>
+      <c r="K7" s="23">
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>500</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>1500</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>250</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>500</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="40">
         <v>500</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>1000</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>750</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>1000</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="40">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>8140</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>8140</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>8140</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>8140</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <v>8140</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <v>8140</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <v>8140</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
+        <v>8140</v>
+      </c>
+      <c r="K9" s="40">
         <v>8140</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>3500</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>3578</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>3578</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>3578</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <v>3578</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <v>3578</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>3578</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
+        <v>3578</v>
+      </c>
+      <c r="K10" s="40">
         <v>3578</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="40">
         <v>3100</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="40">
         <v>1700</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>1820</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>1820</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <v>0</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="40">
         <v>0</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <v>0</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="40">
         <v>0</v>
       </c>
+      <c r="K11" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>4530</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>4530</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>4530</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>4530</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>5600</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>5600</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>5600</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>5600</v>
       </c>
+      <c r="K12" s="37">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="40">
         <v>110</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="40">
         <v>170</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>170</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>170</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <v>170</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="40">
         <v>170</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>170</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="40">
         <v>170</v>
       </c>
+      <c r="K13" s="40">
+        <v>170</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>117</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>117</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>117</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>117</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>117</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>117</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <v>117</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>117</v>
       </c>
+      <c r="K14" s="37">
+        <v>117</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="40">
         <v>1050</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>988</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>988</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="40">
         <v>988</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <v>988</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="40">
         <v>988</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <v>988</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="40">
         <v>988</v>
       </c>
+      <c r="K15" s="40">
+        <v>988</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>1200</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>560</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>560</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>560</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>560</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>560</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="37">
         <v>610</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>610</v>
       </c>
+      <c r="K16" s="37">
+        <v>610</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>440</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>440</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>440</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>440</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <v>440</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>440</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>440</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <v>440</v>
       </c>
+      <c r="K17" s="40">
+        <v>440</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <v>600</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="40">
         <v>600</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>0</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>0</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
         <v>0</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="40">
         <v>0</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="40">
         <v>0</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="40">
         <v>0</v>
       </c>
+      <c r="K18" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>3500</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>3500</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="57">
         <v>3500</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>3500</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>3500</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>4000</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>4000</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>3700</v>
       </c>
+      <c r="K19" s="37">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <v>1000</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <v>1000</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <v>1000</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <v>1000</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>1000</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="40">
         <v>1000</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="40">
         <v>1000</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="40">
         <v>1000</v>
       </c>
+      <c r="K20" s="40">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>1000</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>1500</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="57">
         <v>250</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>500</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>900</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="37">
         <v>200</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="37">
         <v>150</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>900</v>
       </c>
+      <c r="K21" s="37">
+        <v>900</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="40">
         <v>5000</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="40">
         <v>4300</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>3000</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <v>3500</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <v>3200</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="40">
         <v>3000</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="40">
         <v>3500</v>
       </c>
-      <c r="J22" s="41">
-        <v>3500</v>
+      <c r="J22" s="40">
+        <v>4000</v>
+      </c>
+      <c r="K22" s="40">
+        <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="40">
         <v>0</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="40">
         <v>0</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>0</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <v>0</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <v>0</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="40">
         <v>0</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="40">
         <v>0</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="40">
         <v>0</v>
       </c>
+      <c r="K23" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="40">
         <v>500</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="40">
         <v>200</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40">
         <v>0</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>0</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="40">
         <v>0</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>0</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <v>0</v>
       </c>
+      <c r="K24" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>1000</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>1000</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>0</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37">
         <v>500</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>1000</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="37">
         <v>500</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="37">
         <v>500</v>
       </c>
+      <c r="K25" s="37">
+        <v>500</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="37">
         <v>200</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>200</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <v>200</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>200</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>200</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="60">
         <v>0</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>200</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="37">
         <v>200</v>
       </c>
+      <c r="K26" s="37">
+        <v>200</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>0</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>0</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>0</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="37">
         <v>0</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="37">
         <v>0</v>
       </c>
+      <c r="K27" s="37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="57">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="56">
         <v>640</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>0</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <v>0</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="40">
         <v>0</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="40">
         <v>0</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="40">
+        <v>500</v>
+      </c>
+      <c r="K28" s="40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40">
+        <v>600</v>
+      </c>
+      <c r="F29" s="40">
+        <v>600</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40">
+        <v>580</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="63">
+        <v>2227</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40">
+        <v>2065</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40">
+        <v>500</v>
+      </c>
+      <c r="G32" s="40">
+        <v>500</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="40">
         <v>0</v>
       </c>
+      <c r="D34" s="40">
+        <v>500</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="58">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40">
+        <v>3000</v>
+      </c>
+      <c r="K34" s="40">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41">
-        <v>600</v>
-      </c>
-      <c r="F29" s="41">
-        <v>600</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41">
-        <v>580</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="64">
-        <v>2227</v>
-      </c>
-      <c r="J30" s="41"/>
-    </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41">
-        <v>2065</v>
-      </c>
-      <c r="J31" s="41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41">
-        <v>500</v>
-      </c>
-      <c r="G32" s="41">
-        <v>500</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="41">
+    <row r="35" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="41">
-        <v>500</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="59">
-        <v>5000</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-    </row>
-    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
         <v>142</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
         <v>-168</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
         <v>1982</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
         <v>-473</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
         <v>65</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
-        <v>-924</v>
+        <v>-174</v>
+      </c>
+      <c r="K35" s="12">
+        <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
+        <v>-174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7758,11 +7957,308 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B3CD2B-2256-0F41-865B-B317649342C8}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>17112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="65">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="65">
+        <v>8000</v>
+      </c>
+      <c r="K3">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="65">
+        <v>1169</v>
+      </c>
+      <c r="C4" s="65">
+        <v>1169</v>
+      </c>
+      <c r="G4">
+        <v>1169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="65">
+        <v>-200</v>
+      </c>
+      <c r="C5" s="65">
+        <v>-200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="65">
+        <v>-610</v>
+      </c>
+      <c r="C6" s="65">
+        <v>1220</v>
+      </c>
+      <c r="G6">
+        <v>-1220</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="65">
+        <v>-8140</v>
+      </c>
+      <c r="C7" s="65">
+        <v>-8140</v>
+      </c>
+      <c r="G7">
+        <v>-8020</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="65">
+        <v>-1000</v>
+      </c>
+      <c r="C8" s="65">
+        <v>-1000</v>
+      </c>
+      <c r="G8">
+        <v>-1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="65">
+        <v>-500</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="65">
+        <v>-440</v>
+      </c>
+      <c r="C10" s="65">
+        <v>-440</v>
+      </c>
+      <c r="G10">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="65">
+        <v>-5600</v>
+      </c>
+      <c r="C11" s="65">
+        <v>-5600</v>
+      </c>
+      <c r="G11">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="65">
+        <v>-3700</v>
+      </c>
+      <c r="C12" s="65">
+        <v>-3700</v>
+      </c>
+      <c r="G12">
+        <v>-3400</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="65">
+        <v>-170</v>
+      </c>
+      <c r="C13" s="65">
+        <v>-170</v>
+      </c>
+      <c r="G13">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="65">
+        <v>-3000</v>
+      </c>
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="65">
+        <v>-117</v>
+      </c>
+      <c r="C15" s="65">
+        <v>-117</v>
+      </c>
+      <c r="G15">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="65">
+        <v>-988</v>
+      </c>
+      <c r="C16" s="65">
+        <v>-988</v>
+      </c>
+      <c r="G16">
+        <v>-988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="65">
+        <v>-500</v>
+      </c>
+      <c r="C17" s="65">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68">
+        <v>610</v>
+      </c>
+      <c r="G18">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="66">
+        <f>SUM(B3:B17)</f>
+        <v>-15796</v>
+      </c>
+      <c r="C19" s="66">
+        <f>SUM(C3:C18)</f>
+        <v>-9856</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G2:G18)</f>
+        <v>-2064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7770,357 +8266,389 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="K1" s="69" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>11000</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>11000</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>8800</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>8800</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>8800</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>8800</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>8800</v>
       </c>
-      <c r="J2" s="24">
-        <v>8800</v>
+      <c r="J2" s="23">
+        <v>11300</v>
+      </c>
+      <c r="K2" s="23">
+        <v>11300</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>2000</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="40">
         <v>2000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>500</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <v>500</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <v>500</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="40">
         <v>500</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="40">
         <v>700</v>
       </c>
-      <c r="J3" s="41">
-        <v>700</v>
+      <c r="J3" s="40">
+        <v>2200</v>
+      </c>
+      <c r="K3" s="40">
+        <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>7700</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>7700</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>7000</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>6800</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>7000</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>7300</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <v>7750</v>
       </c>
-      <c r="J4" s="38">
-        <v>7750</v>
+      <c r="J4" s="37">
+        <v>8000</v>
+      </c>
+      <c r="K4" s="37">
+        <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>110</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>110</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>110</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>110</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>110</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>110</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="37">
         <v>110</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>110</v>
       </c>
+      <c r="K5" s="37">
+        <v>110</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" s="39" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:11" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>900</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>900</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>900</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>900</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>0</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>0</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>0</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>0</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>0</v>
       </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>200</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>200</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>200</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="40">
         <v>200</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>200</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>200</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>200</v>
       </c>
+      <c r="K8" s="40">
+        <v>200</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40">
         <v>607</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>0</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>0</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>0</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>0</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <v>0</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <v>0</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>0</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <v>0</v>
       </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" s="48" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:11" s="47" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-05-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-05-01])</f>
         <v>290</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-06-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-06-01])</f>
         <v>90</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-07-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-07-01])</f>
         <v>90</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-08-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-08-01])</f>
         <v>290</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-09-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-09-01])</f>
         <v>990</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-10-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-10-01])</f>
         <v>83</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-11-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-11-01])</f>
         <v>40</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="46">
         <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-12-01])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-12-01])</f>
-        <v>40</v>
+        <v>790</v>
+      </c>
+      <c r="K11" s="46">
+        <f>SUMIF(Table325[[Movement]:[Movement]],"Credit", Table325[2024-12-02])-SUMIF(Table325[[Movement]:[Movement]],"Debit",Table325[2024-12-02])</f>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCEDF0D-72A7-F24E-9B15-0D8218302531}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -8142,190 +8670,190 @@
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>500</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>1500</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>250</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>500</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>500</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>600</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>500</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>200</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>200</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>200</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>200</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>200</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>200</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>110</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>110</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>110</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>230</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>230</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>230</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>230</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>230</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>230</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-05-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-05-01])</f>
         <v>500</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-06-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-06-01])</f>
         <v>1070</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-07-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-07-01])</f>
         <v>-180</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-08-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-08-01])</f>
         <v>70</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-09-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-09-01])</f>
         <v>-40</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-10-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-10-01])</f>
         <v>60</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-11-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-11-01])</f>
         <v>-40</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>SUMIF(Table323[[Movement]:[Movement]],"Credit", Table323[2024-12-01])-SUMIF(Table323[[Movement]:[Movement]],"Debit", Table323[2024-12-01])</f>
         <v>-40</v>
       </c>
@@ -8338,7 +8866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6751DF37-EEC1-1D4A-AB4A-07B4665E1B14}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -8357,152 +8885,152 @@
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>2000</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>500</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>500</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>500</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>500</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <v>500</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52">
         <v>3550</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>0</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-05-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-05-01])</f>
         <v>2000</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-06-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-06-01])</f>
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-07-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-07-01])</f>
         <v>-3050</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-08-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-08-01])</f>
         <v>500</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-09-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-09-01])</f>
         <v>500</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-10-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-10-01])</f>
         <v>500</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-11-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-11-01])</f>
         <v>500</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f>SUMIF(Table3254[[Movement]:[Movement]],"Credit", Table3254[2024-12-01])-SUMIF(Table3254[[Movement]:[Movement]],"Debit",Table3254[2024-12-01])</f>
         <v>500</v>
       </c>
@@ -8515,7 +9043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE839C-4430-DC49-9027-EDA3E49A4F64}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
@@ -8536,380 +9064,380 @@
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
         <v>8140</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>8140</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>8140</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>8140</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8140</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>8140</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>8140</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>8140</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>8140</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>8140</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>8140</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>8140</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>8140</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>8140</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>8140</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>8140</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>8140</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>8140</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>8140</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>8140</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>8140</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>8140</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <v>8140</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <v>8140</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <v>8140</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <v>8140</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <v>8140</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>8140</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="7">
         <v>8140</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="7">
         <v>8140</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52">
         <v>716601</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
     </row>
     <row r="4" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-05-01])</f>
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-06-01])</f>
         <v>0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-07-01])</f>
         <v>-708461</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-08-01])</f>
         <v>8140</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-09-01])</f>
         <v>8140</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-10-01])</f>
         <v>8140</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-11-01])</f>
         <v>8140</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-12-01])</f>
         <v>8140</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-01-01])</f>
         <v>8140</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-02-01])</f>
         <v>8140</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-03-01])</f>
         <v>8140</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-04-01])</f>
         <v>8140</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-05-01])</f>
         <v>8140</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-06-01])</f>
         <v>8140</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-07-01])</f>
         <v>8140</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-08-01])</f>
         <v>8140</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-09-01])</f>
         <v>8140</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-10-01])</f>
         <v>8140</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-11-01])</f>
         <v>8140</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-12-01])</f>
         <v>8140</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-01-01])</f>
         <v>8140</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-02-01])</f>
         <v>8140</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-03-01])</f>
         <v>8140</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-04-01])</f>
         <v>8140</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-05-01])</f>
         <v>8140</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-06-01])</f>
         <v>8140</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-07-01])</f>
         <v>8140</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-08-01])</f>
         <v>8140</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-09-01])</f>
         <v>8140</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-10-01])</f>
         <v>8140</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-11-01])</f>
         <v>8140</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AH4" s="12">
         <f>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-12-01])</f>
         <v>8140</v>
       </c>
@@ -8922,7 +9450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656F070-2FBF-4D4F-8695-FA36A20F8B06}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
@@ -8944,696 +9472,696 @@
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>1000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>750</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>250</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>750</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1000</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>750</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>750</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>1000</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>1000</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>1000</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>1000</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>1000</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>1000</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>1000</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>1000</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>1000</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>1000</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>1000</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>1000</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>1000</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>1000</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>1000</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>1000</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <v>1000</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <v>1000</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <v>1000</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <v>1000</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <v>1000</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>1000</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>3495</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
     </row>
     <row r="4" spans="1:34" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1000</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>500</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>1000</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>5000</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>5000</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>5000</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>5000</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>5000</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>5000</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>6000</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>6000</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>6000</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>6000</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>6000</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>6000</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>6000</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>6000</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>6000</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>6000</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <v>6000</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <v>6000</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>6000</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>6000</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <v>6000</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>6000</v>
       </c>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="52">
         <v>10800</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <v>5400</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>5400</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <v>5400</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <v>5400</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="52">
         <v>5400</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53">
         <v>5500</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <v>5500</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="53">
         <v>5500</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="53">
         <v>5500</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="53">
         <v>5500</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="53">
         <v>5500</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="53">
         <v>5500</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="53">
         <v>5500</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="53">
         <v>5500</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="53">
         <v>5500</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54">
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53">
         <v>5600</v>
       </c>
-      <c r="X5" s="54">
+      <c r="X5" s="53">
         <v>5600</v>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5" s="53">
         <v>5600</v>
       </c>
-      <c r="Z5" s="54">
+      <c r="Z5" s="53">
         <v>5600</v>
       </c>
-      <c r="AA5" s="54">
+      <c r="AA5" s="53">
         <v>5600</v>
       </c>
-      <c r="AB5" s="54">
+      <c r="AB5" s="53">
         <v>5600</v>
       </c>
-      <c r="AC5" s="54">
+      <c r="AC5" s="53">
         <v>5600</v>
       </c>
-      <c r="AD5" s="54">
+      <c r="AD5" s="53">
         <v>5600</v>
       </c>
-      <c r="AE5" s="54">
+      <c r="AE5" s="53">
         <v>5600</v>
       </c>
-      <c r="AF5" s="54">
+      <c r="AF5" s="53">
         <v>5600</v>
       </c>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="52">
         <v>0</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>500</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
     </row>
     <row r="8" spans="1:34" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53">
         <v>22000</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54">
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53">
         <v>23000</v>
       </c>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
     </row>
     <row r="9" spans="1:34" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</f>
         <v>-9300</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</f>
         <v>-3400</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</f>
         <v>-4650</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</f>
         <v>-5150</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</f>
         <v>-4150</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</f>
         <v>95</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</f>
         <v>1750</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</f>
         <v>1750</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</f>
         <v>-21500</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</f>
         <v>500</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</f>
         <v>500</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</f>
         <v>500</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</f>
         <v>500</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</f>
         <v>500</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</f>
         <v>1500</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</f>
         <v>1500</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</f>
         <v>1500</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</f>
         <v>1500</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</f>
         <v>7000</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</f>
         <v>7000</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</f>
         <v>-21600</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</f>
         <v>1400</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</f>
         <v>1400</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</f>
         <v>1400</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</f>
         <v>1400</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</f>
         <v>1400</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</f>
         <v>1400</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</f>
         <v>1400</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</f>
         <v>1400</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</f>
         <v>1400</v>
       </c>
-      <c r="AG9" s="13">
+      <c r="AG9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="AH9" s="12">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</f>
         <v>0</v>
       </c>
@@ -9647,7 +10175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDD0CB-B31C-F442-8DCF-E64A8A781A93}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -9664,137 +10192,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>200</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>200</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>200</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>200</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="29">
         <v>200</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>200</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>200</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>0</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:10" s="49" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-05-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-05-01])</f>
         <v>200</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-06-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-06-01])</f>
         <v>200</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-07-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-07-01])</f>
         <v>200</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-08-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-08-01])</f>
         <v>200</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-09-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-09-01])</f>
         <v>200</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-10-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-10-01])</f>
         <v>200</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-11-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-11-01])</f>
         <v>200</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="50">
         <f>SUMIF(Table5[[Movement]:[Movement]],"Credit", Table5[2024-12-01])-SUMIF(Table5[[Movement]:[Movement]],"Debit", Table5[2024-12-01])</f>
         <v>200</v>
       </c>
@@ -9807,7 +10335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83CD6BF-4E21-7D49-A0F6-A907D4FEB74D}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -9827,210 +10355,210 @@
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
         <v>500</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:10" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18">
         <v>1000</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>1000</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:10" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
         <v>4000</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:10" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18">
         <v>500</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
         <v>5000</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:10" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <v>3000</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <v>500</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-05-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-05-01])</f>
         <v>0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-06-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-06-01])</f>
         <v>-500</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-07-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-07-01])</f>
         <v>-8000</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-08-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-08-01])</f>
         <v>-500</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-09-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-09-01])</f>
         <v>-500</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-10-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-10-01])</f>
         <v>-5000</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-11-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-11-01])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f>SUMIF(Table32810[[Movement]:[Movement]],"Credit", Table32810[2024-12-01])-SUMIF(Table32810[[Movement]:[Movement]],"Debit", Table32810[2024-12-01])</f>
         <v>0</v>
       </c>
